--- a/BackTest/2019-10-18 BackTest XRP.xlsx
+++ b/BackTest/2019-10-18 BackTest XRP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>351.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>8</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>351.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>8</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>351.7</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>352</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>352.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>11</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>352.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>11</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>352.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>11</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
       <c r="L19" t="n">
         <v>352.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>12</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>352.3</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>13</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>352.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>13</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-60</v>
+      </c>
       <c r="L22" t="n">
         <v>352</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L23" t="n">
         <v>351.7</v>
@@ -1466,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="K24" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L24" t="n">
         <v>351.3</v>
@@ -1515,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L25" t="n">
         <v>350.9</v>
@@ -1564,7 +1586,7 @@
         <v>15</v>
       </c>
       <c r="K26" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L26" t="n">
         <v>350.6</v>
@@ -1613,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L27" t="n">
         <v>350.4</v>
@@ -1662,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="K28" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L28" t="n">
         <v>350.1</v>
@@ -1711,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="K29" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L29" t="n">
         <v>349.8</v>
@@ -1760,7 +1782,7 @@
         <v>16</v>
       </c>
       <c r="K30" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>349.6</v>
@@ -1809,7 +1831,7 @@
         <v>17</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>349.6</v>
@@ -1860,7 +1882,7 @@
         <v>18</v>
       </c>
       <c r="K32" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L32" t="n">
         <v>349.5</v>
@@ -1911,7 +1933,7 @@
         <v>19</v>
       </c>
       <c r="K33" t="n">
-        <v>-45.45454545454545</v>
+        <v>-20</v>
       </c>
       <c r="L33" t="n">
         <v>349.3</v>
@@ -1962,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="K34" t="n">
-        <v>-45.45454545454545</v>
+        <v>-50</v>
       </c>
       <c r="L34" t="n">
         <v>349.2</v>
@@ -2013,7 +2035,7 @@
         <v>20</v>
       </c>
       <c r="K35" t="n">
-        <v>-45.45454545454545</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>349.1</v>
@@ -2064,7 +2086,7 @@
         <v>21</v>
       </c>
       <c r="K36" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>349.1</v>
@@ -2115,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="K37" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>349</v>
@@ -2166,7 +2188,7 @@
         <v>23</v>
       </c>
       <c r="K38" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L38" t="n">
         <v>349.1</v>
@@ -2217,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L39" t="n">
         <v>349.2</v>
@@ -2268,7 +2290,7 @@
         <v>23</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>349.3</v>
@@ -2319,7 +2341,7 @@
         <v>23</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>349.3</v>
@@ -2370,7 +2392,7 @@
         <v>24</v>
       </c>
       <c r="K42" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L42" t="n">
         <v>349.3</v>
@@ -2421,7 +2443,7 @@
         <v>25</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>349.5</v>
@@ -2574,7 +2596,7 @@
         <v>27</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L46" t="n">
         <v>349.7</v>
@@ -2676,7 +2698,7 @@
         <v>27</v>
       </c>
       <c r="K48" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>349.8</v>
@@ -2727,7 +2749,7 @@
         <v>27</v>
       </c>
       <c r="K49" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>349.8</v>
@@ -2778,7 +2800,7 @@
         <v>27</v>
       </c>
       <c r="K50" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>349.8</v>
@@ -2829,7 +2851,7 @@
         <v>27</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>349.8</v>
@@ -2880,7 +2902,7 @@
         <v>27</v>
       </c>
       <c r="K52" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>349.9</v>
@@ -2931,7 +2953,7 @@
         <v>28</v>
       </c>
       <c r="K53" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>350</v>
@@ -2982,7 +3004,7 @@
         <v>29</v>
       </c>
       <c r="K54" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>350.1</v>
@@ -3033,7 +3055,7 @@
         <v>29</v>
       </c>
       <c r="K55" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>350.1</v>
@@ -3135,7 +3157,7 @@
         <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>350.2</v>
@@ -3390,7 +3412,7 @@
         <v>32</v>
       </c>
       <c r="K62" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>350.3</v>
@@ -3441,7 +3463,7 @@
         <v>32</v>
       </c>
       <c r="K63" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>350.3</v>
@@ -3594,7 +3616,7 @@
         <v>34</v>
       </c>
       <c r="K66" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>350.5</v>
@@ -3645,7 +3667,7 @@
         <v>35</v>
       </c>
       <c r="K67" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L67" t="n">
         <v>350.6</v>
@@ -3696,7 +3718,7 @@
         <v>35</v>
       </c>
       <c r="K68" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L68" t="n">
         <v>350.8</v>
@@ -3747,7 +3769,7 @@
         <v>36</v>
       </c>
       <c r="K69" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>350.9</v>
@@ -3798,7 +3820,7 @@
         <v>37</v>
       </c>
       <c r="K70" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>351.1</v>
@@ -3849,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="K71" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>351.2</v>
@@ -3900,7 +3922,7 @@
         <v>39</v>
       </c>
       <c r="K72" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L72" t="n">
         <v>351.3</v>
@@ -4002,7 +4024,7 @@
         <v>40</v>
       </c>
       <c r="K74" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>351.3</v>
@@ -4053,7 +4075,7 @@
         <v>40</v>
       </c>
       <c r="K75" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>351.4</v>
@@ -4104,7 +4126,7 @@
         <v>40</v>
       </c>
       <c r="K76" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L76" t="n">
         <v>351.4</v>
@@ -4155,7 +4177,7 @@
         <v>40</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L77" t="n">
         <v>351.3</v>
@@ -4257,7 +4279,7 @@
         <v>42</v>
       </c>
       <c r="K79" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L79" t="n">
         <v>351.3</v>
@@ -4308,7 +4330,7 @@
         <v>43</v>
       </c>
       <c r="K80" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L80" t="n">
         <v>351.3</v>
@@ -4359,7 +4381,7 @@
         <v>43</v>
       </c>
       <c r="K81" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>351.4</v>
@@ -4410,7 +4432,7 @@
         <v>43</v>
       </c>
       <c r="K82" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>351.4</v>
@@ -4461,7 +4483,7 @@
         <v>43</v>
       </c>
       <c r="K83" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>351.5</v>
@@ -4563,7 +4585,7 @@
         <v>44</v>
       </c>
       <c r="K85" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>351.5</v>
@@ -4614,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="K86" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>351.6</v>
@@ -4716,7 +4738,7 @@
         <v>45</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>351.7</v>
@@ -4767,7 +4789,7 @@
         <v>46</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>351.7</v>
@@ -4869,7 +4891,7 @@
         <v>47</v>
       </c>
       <c r="K91" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>351.7</v>
@@ -4920,7 +4942,7 @@
         <v>48</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L92" t="n">
         <v>351.6</v>
@@ -4971,7 +4993,7 @@
         <v>49</v>
       </c>
       <c r="K93" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L93" t="n">
         <v>351.6</v>
@@ -5022,7 +5044,7 @@
         <v>49</v>
       </c>
       <c r="K94" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
         <v>351.7</v>
@@ -5073,7 +5095,7 @@
         <v>49</v>
       </c>
       <c r="K95" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>351.8</v>
@@ -5124,7 +5146,7 @@
         <v>49</v>
       </c>
       <c r="K96" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>351.8</v>
@@ -5175,7 +5197,7 @@
         <v>49</v>
       </c>
       <c r="K97" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>351.8</v>
@@ -5226,7 +5248,7 @@
         <v>49</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>351.8</v>
@@ -5277,7 +5299,7 @@
         <v>50</v>
       </c>
       <c r="K99" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>352</v>
@@ -5328,7 +5350,7 @@
         <v>51</v>
       </c>
       <c r="K100" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L100" t="n">
         <v>352.2</v>
@@ -5379,7 +5401,7 @@
         <v>52</v>
       </c>
       <c r="K101" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L101" t="n">
         <v>352.3</v>
@@ -5430,7 +5452,7 @@
         <v>52</v>
       </c>
       <c r="K102" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>352.5</v>
@@ -5532,7 +5554,7 @@
         <v>53</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>352.5</v>
@@ -5583,7 +5605,7 @@
         <v>53</v>
       </c>
       <c r="K105" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>352.5</v>
@@ -5736,7 +5758,7 @@
         <v>53</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>352.5</v>
@@ -5787,7 +5809,7 @@
         <v>54</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L109" t="n">
         <v>352.3</v>
@@ -5838,7 +5860,7 @@
         <v>56</v>
       </c>
       <c r="K110" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>352.2</v>
@@ -5889,7 +5911,7 @@
         <v>57</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L111" t="n">
         <v>352.1</v>
@@ -5940,7 +5962,7 @@
         <v>58</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L112" t="n">
         <v>351.9</v>
@@ -5991,7 +6013,7 @@
         <v>60</v>
       </c>
       <c r="K113" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>352</v>
@@ -6093,7 +6115,7 @@
         <v>62</v>
       </c>
       <c r="K115" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L115" t="n">
         <v>352.1</v>
@@ -6195,7 +6217,7 @@
         <v>64</v>
       </c>
       <c r="K117" t="n">
-        <v>6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L117" t="n">
         <v>352.2</v>
@@ -6246,7 +6268,7 @@
         <v>64</v>
       </c>
       <c r="K118" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>352.3</v>
@@ -6348,7 +6370,7 @@
         <v>65</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>352.4</v>
@@ -6399,7 +6421,7 @@
         <v>65</v>
       </c>
       <c r="K121" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>352.4</v>
@@ -6501,7 +6523,7 @@
         <v>66</v>
       </c>
       <c r="K123" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
         <v>352.6</v>
@@ -6552,7 +6574,7 @@
         <v>67</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L124" t="n">
         <v>352.6</v>
@@ -6654,7 +6676,7 @@
         <v>67</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>352.5</v>
@@ -6705,7 +6727,7 @@
         <v>67</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>352.4</v>
@@ -6756,7 +6778,7 @@
         <v>67</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>352.3</v>
@@ -6807,7 +6829,7 @@
         <v>68</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>352.1</v>
@@ -6858,7 +6880,7 @@
         <v>69</v>
       </c>
       <c r="K130" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>352.1</v>
@@ -6909,7 +6931,7 @@
         <v>70</v>
       </c>
       <c r="K131" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L131" t="n">
         <v>352</v>
@@ -6960,7 +6982,7 @@
         <v>70</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L132" t="n">
         <v>351.8</v>
@@ -7011,7 +7033,7 @@
         <v>70</v>
       </c>
       <c r="K133" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>351.6</v>
@@ -7062,7 +7084,7 @@
         <v>70</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>351.5</v>
@@ -7113,7 +7135,7 @@
         <v>71</v>
       </c>
       <c r="K135" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>351.5</v>
@@ -7215,7 +7237,7 @@
         <v>72</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L137" t="n">
         <v>351.6</v>
@@ -7266,7 +7288,7 @@
         <v>72</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L138" t="n">
         <v>351.7</v>
@@ -7317,7 +7339,7 @@
         <v>73</v>
       </c>
       <c r="K139" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L139" t="n">
         <v>352</v>
@@ -7368,7 +7390,7 @@
         <v>74</v>
       </c>
       <c r="K140" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L140" t="n">
         <v>352.1</v>
@@ -7419,7 +7441,7 @@
         <v>74</v>
       </c>
       <c r="K141" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L141" t="n">
         <v>352.3</v>
@@ -7470,7 +7492,7 @@
         <v>74</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L142" t="n">
         <v>352.5</v>
@@ -7521,7 +7543,7 @@
         <v>74</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L143" t="n">
         <v>352.7</v>
@@ -7572,7 +7594,7 @@
         <v>74</v>
       </c>
       <c r="K144" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>352.9</v>
@@ -7623,7 +7645,7 @@
         <v>74</v>
       </c>
       <c r="K145" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>353</v>
@@ -7674,7 +7696,7 @@
         <v>74</v>
       </c>
       <c r="K146" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>353.1</v>
@@ -7725,7 +7747,7 @@
         <v>74</v>
       </c>
       <c r="K147" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>353.1</v>
@@ -7776,7 +7798,7 @@
         <v>74</v>
       </c>
       <c r="K148" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L148" t="n">
         <v>353.1</v>
@@ -7826,9 +7848,7 @@
       <c r="J149" t="n">
         <v>74</v>
       </c>
-      <c r="K149" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>353</v>
       </c>
@@ -7878,7 +7898,7 @@
         <v>75</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L150" t="n">
         <v>352.9</v>
@@ -7929,7 +7949,7 @@
         <v>75</v>
       </c>
       <c r="K151" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L151" t="n">
         <v>352.8</v>
@@ -7980,7 +8000,7 @@
         <v>75</v>
       </c>
       <c r="K152" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>352.7</v>
@@ -8031,7 +8051,7 @@
         <v>75</v>
       </c>
       <c r="K153" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L153" t="n">
         <v>352.6</v>
@@ -8082,7 +8102,7 @@
         <v>75</v>
       </c>
       <c r="K154" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L154" t="n">
         <v>352.5</v>
@@ -8133,7 +8153,7 @@
         <v>75</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L155" t="n">
         <v>352.4</v>
@@ -8184,7 +8204,7 @@
         <v>75</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L156" t="n">
         <v>352.3</v>
@@ -8235,7 +8255,7 @@
         <v>75</v>
       </c>
       <c r="K157" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L157" t="n">
         <v>352.2</v>
@@ -8337,7 +8357,7 @@
         <v>76</v>
       </c>
       <c r="K159" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>352.2</v>
@@ -8388,7 +8408,7 @@
         <v>77</v>
       </c>
       <c r="K160" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>352.2</v>
@@ -8439,7 +8459,7 @@
         <v>78</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>352.3</v>
@@ -8490,7 +8510,7 @@
         <v>79</v>
       </c>
       <c r="K162" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>352.3</v>
@@ -8541,7 +8561,7 @@
         <v>79</v>
       </c>
       <c r="K163" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>352.3</v>
@@ -8592,7 +8612,7 @@
         <v>79</v>
       </c>
       <c r="K164" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>352.3</v>
@@ -8643,7 +8663,7 @@
         <v>80</v>
       </c>
       <c r="K165" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L165" t="n">
         <v>352.2</v>
@@ -8694,7 +8714,7 @@
         <v>81</v>
       </c>
       <c r="K166" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>352.2</v>
@@ -8745,7 +8765,7 @@
         <v>82</v>
       </c>
       <c r="K167" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>352.1</v>
@@ -8796,7 +8816,7 @@
         <v>82</v>
       </c>
       <c r="K168" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>351.9</v>
@@ -8847,7 +8867,7 @@
         <v>84</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L169" t="n">
         <v>351.9</v>
@@ -8898,7 +8918,7 @@
         <v>85</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L170" t="n">
         <v>351.9</v>
@@ -9000,7 +9020,7 @@
         <v>86</v>
       </c>
       <c r="K172" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L172" t="n">
         <v>351.9</v>
@@ -9051,7 +9071,7 @@
         <v>86</v>
       </c>
       <c r="K173" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L173" t="n">
         <v>352</v>
@@ -9102,7 +9122,7 @@
         <v>87</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L174" t="n">
         <v>352</v>
@@ -9204,7 +9224,7 @@
         <v>88</v>
       </c>
       <c r="K176" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>352.2</v>
@@ -9255,7 +9275,7 @@
         <v>88</v>
       </c>
       <c r="K177" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L177" t="n">
         <v>352.4</v>
@@ -9357,7 +9377,7 @@
         <v>89</v>
       </c>
       <c r="K179" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>352.5</v>
@@ -9408,7 +9428,7 @@
         <v>90</v>
       </c>
       <c r="K180" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L180" t="n">
         <v>352.6</v>
@@ -9510,7 +9530,7 @@
         <v>90</v>
       </c>
       <c r="K182" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>352.7</v>
@@ -9561,7 +9581,7 @@
         <v>90</v>
       </c>
       <c r="K183" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>352.7</v>
@@ -9612,7 +9632,7 @@
         <v>90</v>
       </c>
       <c r="K184" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>352.8</v>
@@ -9663,7 +9683,7 @@
         <v>90</v>
       </c>
       <c r="K185" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>352.9</v>
@@ -9714,7 +9734,7 @@
         <v>90</v>
       </c>
       <c r="K186" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>352.9</v>
@@ -9816,7 +9836,7 @@
         <v>92</v>
       </c>
       <c r="K188" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>353</v>
@@ -9918,7 +9938,7 @@
         <v>92</v>
       </c>
       <c r="K190" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>353.1</v>
@@ -9969,7 +9989,7 @@
         <v>92</v>
       </c>
       <c r="K191" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>353.1</v>
@@ -10122,7 +10142,7 @@
         <v>93</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>353</v>
@@ -10173,7 +10193,7 @@
         <v>93</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>352.9</v>
@@ -10224,7 +10244,7 @@
         <v>94</v>
       </c>
       <c r="K196" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L196" t="n">
         <v>352.7</v>
@@ -10275,7 +10295,7 @@
         <v>94</v>
       </c>
       <c r="K197" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L197" t="n">
         <v>352.4</v>
@@ -10326,7 +10346,7 @@
         <v>94</v>
       </c>
       <c r="K198" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L198" t="n">
         <v>352.2</v>
@@ -10377,7 +10397,7 @@
         <v>94</v>
       </c>
       <c r="K199" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L199" t="n">
         <v>352</v>
@@ -10428,7 +10448,7 @@
         <v>95</v>
       </c>
       <c r="K200" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L200" t="n">
         <v>351.7</v>
@@ -10479,7 +10499,7 @@
         <v>96</v>
       </c>
       <c r="K201" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L201" t="n">
         <v>351.5</v>
@@ -10530,7 +10550,7 @@
         <v>96</v>
       </c>
       <c r="K202" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L202" t="n">
         <v>351.3</v>
@@ -10683,7 +10703,7 @@
         <v>96</v>
       </c>
       <c r="K205" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>350.9</v>
@@ -10734,7 +10754,7 @@
         <v>96</v>
       </c>
       <c r="K206" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>350.9</v>
@@ -10785,7 +10805,7 @@
         <v>96</v>
       </c>
       <c r="K207" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>350.9</v>
@@ -10836,7 +10856,7 @@
         <v>97</v>
       </c>
       <c r="K208" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>350.8</v>
@@ -10887,7 +10907,7 @@
         <v>98</v>
       </c>
       <c r="K209" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>350.8</v>
@@ -10938,7 +10958,7 @@
         <v>98</v>
       </c>
       <c r="K210" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>350.9</v>
@@ -10989,7 +11009,7 @@
         <v>99</v>
       </c>
       <c r="K211" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>350.8</v>
@@ -11040,7 +11060,7 @@
         <v>100</v>
       </c>
       <c r="K212" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>350.8</v>
@@ -11091,7 +11111,7 @@
         <v>101</v>
       </c>
       <c r="K213" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L213" t="n">
         <v>350.9</v>
@@ -11142,7 +11162,7 @@
         <v>103</v>
       </c>
       <c r="K214" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L214" t="n">
         <v>350.8</v>
@@ -11193,7 +11213,7 @@
         <v>103</v>
       </c>
       <c r="K215" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L215" t="n">
         <v>350.7</v>
@@ -11244,7 +11264,7 @@
         <v>103</v>
       </c>
       <c r="K216" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>350.6</v>
@@ -11295,7 +11315,7 @@
         <v>104</v>
       </c>
       <c r="K217" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L217" t="n">
         <v>350.4</v>
@@ -11346,7 +11366,7 @@
         <v>105</v>
       </c>
       <c r="K218" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L218" t="n">
         <v>350.4</v>
@@ -11448,7 +11468,7 @@
         <v>106</v>
       </c>
       <c r="K220" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L220" t="n">
         <v>350.4</v>
@@ -11499,7 +11519,7 @@
         <v>107</v>
       </c>
       <c r="K221" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L221" t="n">
         <v>350.4</v>
@@ -11550,7 +11570,7 @@
         <v>108</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L222" t="n">
         <v>350.4</v>
@@ -11601,7 +11621,7 @@
         <v>109</v>
       </c>
       <c r="K223" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>350.2</v>
@@ -11652,7 +11672,7 @@
         <v>110</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L224" t="n">
         <v>350.3</v>
@@ -11703,7 +11723,7 @@
         <v>110</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L225" t="n">
         <v>350.4</v>
@@ -11754,7 +11774,7 @@
         <v>110</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L226" t="n">
         <v>350.5</v>
@@ -11805,7 +11825,7 @@
         <v>110</v>
       </c>
       <c r="K227" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L227" t="n">
         <v>350.7</v>
@@ -11856,7 +11876,7 @@
         <v>110</v>
       </c>
       <c r="K228" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>350.8</v>
@@ -11907,7 +11927,7 @@
         <v>111</v>
       </c>
       <c r="K229" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L229" t="n">
         <v>350.7</v>
@@ -11958,7 +11978,7 @@
         <v>112</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L230" t="n">
         <v>350.7</v>
@@ -12009,7 +12029,7 @@
         <v>113</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L231" t="n">
         <v>350.7</v>
@@ -12060,7 +12080,7 @@
         <v>114</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L232" t="n">
         <v>350.7</v>
@@ -12111,7 +12131,7 @@
         <v>114</v>
       </c>
       <c r="K233" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>350.8</v>
@@ -12162,7 +12182,7 @@
         <v>114</v>
       </c>
       <c r="K234" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>350.8</v>
@@ -12213,7 +12233,7 @@
         <v>115</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L235" t="n">
         <v>350.7</v>
@@ -12264,7 +12284,7 @@
         <v>115</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L236" t="n">
         <v>350.6</v>
@@ -12315,7 +12335,7 @@
         <v>116</v>
       </c>
       <c r="K237" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>350.6</v>
@@ -12468,7 +12488,7 @@
         <v>118</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L240" t="n">
         <v>350.6</v>
@@ -12519,7 +12539,7 @@
         <v>118</v>
       </c>
       <c r="K241" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>350.7</v>
@@ -12621,7 +12641,7 @@
         <v>118</v>
       </c>
       <c r="K243" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>350.7</v>
@@ -12672,7 +12692,7 @@
         <v>118</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>350.7</v>
@@ -12723,7 +12743,7 @@
         <v>118</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>350.8</v>
@@ -12825,7 +12845,7 @@
         <v>119</v>
       </c>
       <c r="K247" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L247" t="n">
         <v>351</v>
@@ -12876,7 +12896,7 @@
         <v>120</v>
       </c>
       <c r="K248" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L248" t="n">
         <v>351.3</v>
@@ -12927,7 +12947,7 @@
         <v>120</v>
       </c>
       <c r="K249" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L249" t="n">
         <v>351.5</v>
@@ -12978,7 +12998,7 @@
         <v>121</v>
       </c>
       <c r="K250" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>351.6</v>
@@ -13029,7 +13049,7 @@
         <v>121</v>
       </c>
       <c r="K251" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L251" t="n">
         <v>351.7</v>
@@ -13080,7 +13100,7 @@
         <v>121</v>
       </c>
       <c r="K252" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>351.8</v>
@@ -13131,7 +13151,7 @@
         <v>121</v>
       </c>
       <c r="K253" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L253" t="n">
         <v>351.9</v>
@@ -13233,7 +13253,7 @@
         <v>122</v>
       </c>
       <c r="K255" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>351.9</v>
@@ -13284,7 +13304,7 @@
         <v>123</v>
       </c>
       <c r="K256" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>352</v>
@@ -13335,7 +13355,7 @@
         <v>123</v>
       </c>
       <c r="K257" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>352</v>
@@ -13386,7 +13406,7 @@
         <v>124</v>
       </c>
       <c r="K258" t="n">
-        <v>14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L258" t="n">
         <v>351.8</v>
@@ -13437,7 +13457,7 @@
         <v>124</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>351.6</v>
@@ -13488,7 +13508,7 @@
         <v>124</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>351.5</v>
@@ -13539,7 +13559,7 @@
         <v>124</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>351.4</v>
@@ -13590,7 +13610,7 @@
         <v>125</v>
       </c>
       <c r="K262" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>351.4</v>
@@ -13641,7 +13661,7 @@
         <v>125</v>
       </c>
       <c r="K263" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>351.4</v>
@@ -13692,7 +13712,7 @@
         <v>125</v>
       </c>
       <c r="K264" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>351.5</v>
@@ -13743,7 +13763,7 @@
         <v>125</v>
       </c>
       <c r="K265" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>351.6</v>
@@ -13794,7 +13814,7 @@
         <v>125</v>
       </c>
       <c r="K266" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>351.6</v>
@@ -13845,7 +13865,7 @@
         <v>125</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L267" t="n">
         <v>351.6</v>
@@ -13896,7 +13916,7 @@
         <v>125</v>
       </c>
       <c r="K268" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L268" t="n">
         <v>351.7</v>
@@ -13947,7 +13967,7 @@
         <v>126</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L269" t="n">
         <v>351.9</v>
@@ -13998,7 +14018,7 @@
         <v>127</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>352</v>
@@ -14049,7 +14069,7 @@
         <v>128</v>
       </c>
       <c r="K271" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>352.2</v>
@@ -14100,7 +14120,7 @@
         <v>128</v>
       </c>
       <c r="K272" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>352.3</v>
@@ -14151,7 +14171,7 @@
         <v>128</v>
       </c>
       <c r="K273" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>352.4</v>
@@ -14202,7 +14222,7 @@
         <v>129</v>
       </c>
       <c r="K274" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>352.4</v>
@@ -14253,7 +14273,7 @@
         <v>129</v>
       </c>
       <c r="K275" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>352.4</v>
@@ -14406,7 +14426,7 @@
         <v>130</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L278" t="n">
         <v>352.3</v>
@@ -14457,7 +14477,7 @@
         <v>131</v>
       </c>
       <c r="K279" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>352.2</v>
@@ -14508,7 +14528,7 @@
         <v>132</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L280" t="n">
         <v>352.1</v>
@@ -14559,7 +14579,7 @@
         <v>133</v>
       </c>
       <c r="K281" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L281" t="n">
         <v>352</v>
@@ -14610,7 +14630,7 @@
         <v>133</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L282" t="n">
         <v>351.9</v>
@@ -14661,7 +14681,7 @@
         <v>134</v>
       </c>
       <c r="K283" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L283" t="n">
         <v>351.7</v>
@@ -14712,7 +14732,7 @@
         <v>134</v>
       </c>
       <c r="K284" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L284" t="n">
         <v>351.6</v>
@@ -14763,7 +14783,7 @@
         <v>134</v>
       </c>
       <c r="K285" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L285" t="n">
         <v>351.5</v>
@@ -14865,7 +14885,7 @@
         <v>136</v>
       </c>
       <c r="K287" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>351.4</v>
@@ -14916,7 +14936,7 @@
         <v>136</v>
       </c>
       <c r="K288" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L288" t="n">
         <v>351.4</v>
@@ -14967,7 +14987,7 @@
         <v>137</v>
       </c>
       <c r="K289" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L289" t="n">
         <v>351.4</v>
@@ -15018,7 +15038,7 @@
         <v>138</v>
       </c>
       <c r="K290" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L290" t="n">
         <v>351.4</v>
@@ -15120,7 +15140,7 @@
         <v>138</v>
       </c>
       <c r="K292" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>351.2</v>
@@ -15171,7 +15191,7 @@
         <v>138</v>
       </c>
       <c r="K293" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>351.2</v>
@@ -15273,7 +15293,7 @@
         <v>139</v>
       </c>
       <c r="K295" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L295" t="n">
         <v>351</v>
@@ -15324,7 +15344,7 @@
         <v>139</v>
       </c>
       <c r="K296" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>350.8</v>
@@ -15375,7 +15395,7 @@
         <v>140</v>
       </c>
       <c r="K297" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>350.8</v>
@@ -15426,7 +15446,7 @@
         <v>141</v>
       </c>
       <c r="K298" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L298" t="n">
         <v>350.7</v>
@@ -15477,7 +15497,7 @@
         <v>142</v>
       </c>
       <c r="K299" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>350.6</v>
@@ -15579,7 +15599,7 @@
         <v>142</v>
       </c>
       <c r="K301" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>350.6</v>
@@ -15630,7 +15650,7 @@
         <v>142</v>
       </c>
       <c r="K302" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>350.6</v>
@@ -15681,7 +15701,7 @@
         <v>143</v>
       </c>
       <c r="K303" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L303" t="n">
         <v>350.7</v>
@@ -15732,7 +15752,7 @@
         <v>144</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L304" t="n">
         <v>350.8</v>
@@ -15783,7 +15803,7 @@
         <v>144</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L305" t="n">
         <v>350.9</v>
@@ -15834,7 +15854,7 @@
         <v>144</v>
       </c>
       <c r="K306" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>351</v>
@@ -15885,7 +15905,7 @@
         <v>144</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L307" t="n">
         <v>351</v>
@@ -15936,7 +15956,7 @@
         <v>145</v>
       </c>
       <c r="K308" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>351.2</v>
@@ -15987,7 +16007,7 @@
         <v>146</v>
       </c>
       <c r="K309" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>351.2</v>
@@ -16140,7 +16160,7 @@
         <v>146</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L312" t="n">
         <v>351.2</v>
@@ -16191,7 +16211,7 @@
         <v>147</v>
       </c>
       <c r="K313" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>351.2</v>
@@ -16242,7 +16262,7 @@
         <v>147</v>
       </c>
       <c r="K314" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L314" t="n">
         <v>351.3</v>
@@ -16293,7 +16313,7 @@
         <v>147</v>
       </c>
       <c r="K315" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L315" t="n">
         <v>351.4</v>
@@ -16344,7 +16364,7 @@
         <v>147</v>
       </c>
       <c r="K316" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L316" t="n">
         <v>351.5</v>
@@ -16395,7 +16415,7 @@
         <v>148</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L317" t="n">
         <v>351.5</v>
@@ -16446,7 +16466,7 @@
         <v>148</v>
       </c>
       <c r="K318" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>351.4</v>
@@ -16650,7 +16670,7 @@
         <v>148</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L322" t="n">
         <v>351.4</v>
@@ -16701,7 +16721,7 @@
         <v>149</v>
       </c>
       <c r="K323" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L323" t="n">
         <v>351.2</v>
@@ -16752,7 +16772,7 @@
         <v>150</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L324" t="n">
         <v>351.1</v>
@@ -16803,7 +16823,7 @@
         <v>150</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>351</v>
@@ -16905,7 +16925,7 @@
         <v>151</v>
       </c>
       <c r="K327" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L327" t="n">
         <v>351</v>
@@ -16956,7 +16976,7 @@
         <v>151</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>351.1</v>
@@ -17007,7 +17027,7 @@
         <v>152</v>
       </c>
       <c r="K329" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L329" t="n">
         <v>351.3</v>
@@ -17058,7 +17078,7 @@
         <v>153</v>
       </c>
       <c r="K330" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L330" t="n">
         <v>351.4</v>
@@ -17109,7 +17129,7 @@
         <v>153</v>
       </c>
       <c r="K331" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L331" t="n">
         <v>351.5</v>
@@ -17160,7 +17180,7 @@
         <v>154</v>
       </c>
       <c r="K332" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L332" t="n">
         <v>351.7</v>
@@ -17211,7 +17231,7 @@
         <v>154</v>
       </c>
       <c r="K333" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L333" t="n">
         <v>352</v>
@@ -17262,7 +17282,7 @@
         <v>156</v>
       </c>
       <c r="K334" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>352</v>
@@ -17313,7 +17333,7 @@
         <v>157</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L335" t="n">
         <v>352.1</v>
@@ -17415,7 +17435,7 @@
         <v>158</v>
       </c>
       <c r="K337" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L337" t="n">
         <v>352.3</v>
@@ -17466,7 +17486,7 @@
         <v>159</v>
       </c>
       <c r="K338" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L338" t="n">
         <v>352.3</v>
@@ -17517,7 +17537,7 @@
         <v>159</v>
       </c>
       <c r="K339" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
         <v>352.2</v>
@@ -17568,7 +17588,7 @@
         <v>159</v>
       </c>
       <c r="K340" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>352.2</v>
@@ -17619,7 +17639,7 @@
         <v>159</v>
       </c>
       <c r="K341" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L341" t="n">
         <v>352.2</v>
@@ -17670,7 +17690,7 @@
         <v>159</v>
       </c>
       <c r="K342" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L342" t="n">
         <v>352.1</v>
@@ -17721,7 +17741,7 @@
         <v>159</v>
       </c>
       <c r="K343" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L343" t="n">
         <v>352</v>
@@ -17772,7 +17792,7 @@
         <v>159</v>
       </c>
       <c r="K344" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>352.1</v>
@@ -17823,7 +17843,7 @@
         <v>160</v>
       </c>
       <c r="K345" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>352.2</v>
@@ -17874,7 +17894,7 @@
         <v>162</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L346" t="n">
         <v>352.1</v>
@@ -18027,7 +18047,7 @@
         <v>163</v>
       </c>
       <c r="K349" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>352</v>
@@ -18129,7 +18149,7 @@
         <v>164</v>
       </c>
       <c r="K351" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L351" t="n">
         <v>351.9</v>
@@ -18180,7 +18200,7 @@
         <v>165</v>
       </c>
       <c r="K352" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>351.9</v>
@@ -18231,7 +18251,7 @@
         <v>165</v>
       </c>
       <c r="K353" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>351.9</v>
@@ -18282,7 +18302,7 @@
         <v>165</v>
       </c>
       <c r="K354" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L354" t="n">
         <v>351.9</v>
@@ -18333,7 +18353,7 @@
         <v>165</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>351.8</v>
@@ -18435,7 +18455,7 @@
         <v>166</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L357" t="n">
         <v>352</v>
@@ -18588,7 +18608,7 @@
         <v>167</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L360" t="n">
         <v>352</v>
@@ -18639,7 +18659,7 @@
         <v>169</v>
       </c>
       <c r="K361" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L361" t="n">
         <v>352.3</v>
@@ -18690,7 +18710,7 @@
         <v>169</v>
       </c>
       <c r="K362" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L362" t="n">
         <v>352.5</v>
@@ -18741,7 +18761,7 @@
         <v>169</v>
       </c>
       <c r="K363" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L363" t="n">
         <v>352.7</v>
@@ -18792,7 +18812,7 @@
         <v>170</v>
       </c>
       <c r="K364" t="n">
-        <v>27.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L364" t="n">
         <v>353</v>
@@ -18843,7 +18863,7 @@
         <v>171</v>
       </c>
       <c r="K365" t="n">
-        <v>27.27272727272727</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L365" t="n">
         <v>353.4</v>
@@ -18894,7 +18914,7 @@
         <v>172</v>
       </c>
       <c r="K366" t="n">
-        <v>60</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L366" t="n">
         <v>353.9</v>
@@ -18945,7 +18965,7 @@
         <v>173</v>
       </c>
       <c r="K367" t="n">
-        <v>40</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L367" t="n">
         <v>354.2</v>
@@ -18996,7 +19016,7 @@
         <v>174</v>
       </c>
       <c r="K368" t="n">
-        <v>45.45454545454545</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L368" t="n">
         <v>354.7</v>
@@ -19047,7 +19067,7 @@
         <v>175</v>
       </c>
       <c r="K369" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L369" t="n">
         <v>355.3</v>
@@ -19098,7 +19118,7 @@
         <v>175</v>
       </c>
       <c r="K370" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L370" t="n">
         <v>355.9</v>
@@ -19149,7 +19169,7 @@
         <v>176</v>
       </c>
       <c r="K371" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L371" t="n">
         <v>356.2</v>
@@ -19251,7 +19271,7 @@
         <v>178</v>
       </c>
       <c r="K373" t="n">
-        <v>38.46153846153847</v>
+        <v>25</v>
       </c>
       <c r="L373" t="n">
         <v>356.9</v>
@@ -19302,7 +19322,7 @@
         <v>178</v>
       </c>
       <c r="K374" t="n">
-        <v>38.46153846153847</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L374" t="n">
         <v>357.1</v>
@@ -19353,7 +19373,7 @@
         <v>179</v>
       </c>
       <c r="K375" t="n">
-        <v>42.85714285714285</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L375" t="n">
         <v>357.3</v>
@@ -19404,7 +19424,7 @@
         <v>180</v>
       </c>
       <c r="K376" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L376" t="n">
         <v>357.3</v>
@@ -19455,7 +19475,7 @@
         <v>180</v>
       </c>
       <c r="K377" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>357.4</v>
@@ -19506,7 +19526,7 @@
         <v>180</v>
       </c>
       <c r="K378" t="n">
-        <v>38.46153846153847</v>
+        <v>-20</v>
       </c>
       <c r="L378" t="n">
         <v>357.4</v>
@@ -19557,7 +19577,7 @@
         <v>181</v>
       </c>
       <c r="K379" t="n">
-        <v>28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>357.2</v>
@@ -19608,7 +19628,7 @@
         <v>182</v>
       </c>
       <c r="K380" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>357.1</v>
@@ -19659,7 +19679,7 @@
         <v>183</v>
       </c>
       <c r="K381" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L381" t="n">
         <v>357</v>
@@ -19710,7 +19730,7 @@
         <v>183</v>
       </c>
       <c r="K382" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L382" t="n">
         <v>356.8</v>
@@ -19761,7 +19781,7 @@
         <v>184</v>
       </c>
       <c r="K383" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L383" t="n">
         <v>356.6</v>
@@ -19812,7 +19832,7 @@
         <v>185</v>
       </c>
       <c r="K384" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L384" t="n">
         <v>356.5</v>
@@ -19863,7 +19883,7 @@
         <v>185</v>
       </c>
       <c r="K385" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L385" t="n">
         <v>356.3</v>
@@ -19914,7 +19934,7 @@
         <v>185</v>
       </c>
       <c r="K386" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L386" t="n">
         <v>356.2</v>
@@ -19965,7 +19985,7 @@
         <v>186</v>
       </c>
       <c r="K387" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>356.2</v>
@@ -20016,7 +20036,7 @@
         <v>186</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L388" t="n">
         <v>356.2</v>
@@ -20067,7 +20087,7 @@
         <v>186</v>
       </c>
       <c r="K389" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>356.3</v>
@@ -20118,7 +20138,7 @@
         <v>187</v>
       </c>
       <c r="K390" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L390" t="n">
         <v>356.4</v>
@@ -20169,7 +20189,7 @@
         <v>187</v>
       </c>
       <c r="K391" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L391" t="n">
         <v>356.6</v>
@@ -20220,7 +20240,7 @@
         <v>187</v>
       </c>
       <c r="K392" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L392" t="n">
         <v>356.8</v>
@@ -20271,7 +20291,7 @@
         <v>188</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L393" t="n">
         <v>357</v>
@@ -20322,7 +20342,7 @@
         <v>188</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L394" t="n">
         <v>357.1</v>
@@ -20373,7 +20393,7 @@
         <v>188</v>
       </c>
       <c r="K395" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L395" t="n">
         <v>357.2</v>
@@ -20424,7 +20444,7 @@
         <v>189</v>
       </c>
       <c r="K396" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L396" t="n">
         <v>357.2</v>
@@ -20475,7 +20495,7 @@
         <v>189</v>
       </c>
       <c r="K397" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>357.1</v>
@@ -20577,7 +20597,7 @@
         <v>190</v>
       </c>
       <c r="K399" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L399" t="n">
         <v>357.1</v>
@@ -20628,7 +20648,7 @@
         <v>190</v>
       </c>
       <c r="K400" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L400" t="n">
         <v>357</v>
@@ -20679,7 +20699,7 @@
         <v>191</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L401" t="n">
         <v>356.8</v>
@@ -20730,7 +20750,7 @@
         <v>192</v>
       </c>
       <c r="K402" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>356.7</v>
@@ -20781,7 +20801,7 @@
         <v>192</v>
       </c>
       <c r="K403" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>356.7</v>
@@ -20832,7 +20852,7 @@
         <v>193</v>
       </c>
       <c r="K404" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L404" t="n">
         <v>356.6</v>
@@ -20883,7 +20903,7 @@
         <v>194</v>
       </c>
       <c r="K405" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L405" t="n">
         <v>356.4</v>
@@ -20934,7 +20954,7 @@
         <v>196</v>
       </c>
       <c r="K406" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L406" t="n">
         <v>356.5</v>
@@ -20985,7 +21005,7 @@
         <v>197</v>
       </c>
       <c r="K407" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L407" t="n">
         <v>356.5</v>
@@ -21036,7 +21056,7 @@
         <v>198</v>
       </c>
       <c r="K408" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L408" t="n">
         <v>356.3</v>
@@ -21087,7 +21107,7 @@
         <v>199</v>
       </c>
       <c r="K409" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L409" t="n">
         <v>356.2</v>
@@ -21138,7 +21158,7 @@
         <v>200</v>
       </c>
       <c r="K410" t="n">
-        <v>-23.07692307692308</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L410" t="n">
         <v>356</v>
@@ -21189,7 +21209,7 @@
         <v>201</v>
       </c>
       <c r="K411" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L411" t="n">
         <v>356</v>
@@ -21240,7 +21260,7 @@
         <v>201</v>
       </c>
       <c r="K412" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L412" t="n">
         <v>355.9</v>
@@ -21291,7 +21311,7 @@
         <v>202</v>
       </c>
       <c r="K413" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L413" t="n">
         <v>355.7</v>
@@ -21342,7 +21362,7 @@
         <v>203</v>
       </c>
       <c r="K414" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L414" t="n">
         <v>355.7</v>
@@ -21393,7 +21413,7 @@
         <v>203</v>
       </c>
       <c r="K415" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L415" t="n">
         <v>355.8</v>
@@ -21495,7 +21515,7 @@
         <v>203</v>
       </c>
       <c r="K417" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L417" t="n">
         <v>355.7</v>
@@ -21546,7 +21566,7 @@
         <v>204</v>
       </c>
       <c r="K418" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L418" t="n">
         <v>355.9</v>
@@ -21597,7 +21617,7 @@
         <v>205</v>
       </c>
       <c r="K419" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L419" t="n">
         <v>355.9</v>
@@ -21648,7 +21668,7 @@
         <v>205</v>
       </c>
       <c r="K420" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>356</v>
@@ -21699,7 +21719,7 @@
         <v>207</v>
       </c>
       <c r="K421" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L421" t="n">
         <v>355.8</v>
@@ -21801,7 +21821,7 @@
         <v>208</v>
       </c>
       <c r="K423" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L423" t="n">
         <v>355.6</v>
@@ -21903,7 +21923,7 @@
         <v>210</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L425" t="n">
         <v>355.5</v>
@@ -21954,7 +21974,7 @@
         <v>211</v>
       </c>
       <c r="K426" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L426" t="n">
         <v>355.3</v>
@@ -22005,7 +22025,7 @@
         <v>213</v>
       </c>
       <c r="K427" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L427" t="n">
         <v>355.3</v>
@@ -22056,7 +22076,7 @@
         <v>214</v>
       </c>
       <c r="K428" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L428" t="n">
         <v>355.1</v>
@@ -22158,7 +22178,7 @@
         <v>216</v>
       </c>
       <c r="K430" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L430" t="n">
         <v>355.2</v>
@@ -22209,7 +22229,7 @@
         <v>217</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L431" t="n">
         <v>355.4</v>
@@ -22260,7 +22280,7 @@
         <v>217</v>
       </c>
       <c r="K432" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L432" t="n">
         <v>355.6</v>
@@ -22311,7 +22331,7 @@
         <v>217</v>
       </c>
       <c r="K433" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>355.7</v>
@@ -22362,7 +22382,7 @@
         <v>217</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L434" t="n">
         <v>355.7</v>
@@ -22413,7 +22433,7 @@
         <v>217</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>355.8</v>
@@ -22464,7 +22484,7 @@
         <v>218</v>
       </c>
       <c r="K436" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L436" t="n">
         <v>356.1</v>
@@ -22515,7 +22535,7 @@
         <v>219</v>
       </c>
       <c r="K437" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L437" t="n">
         <v>356.1</v>
@@ -22566,7 +22586,7 @@
         <v>219</v>
       </c>
       <c r="K438" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>356.2</v>
@@ -22617,7 +22637,7 @@
         <v>219</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L439" t="n">
         <v>356.2</v>
@@ -22668,7 +22688,7 @@
         <v>220</v>
       </c>
       <c r="K440" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L440" t="n">
         <v>356</v>
@@ -22719,7 +22739,7 @@
         <v>220</v>
       </c>
       <c r="K441" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L441" t="n">
         <v>355.9</v>
@@ -22770,7 +22790,7 @@
         <v>220</v>
       </c>
       <c r="K442" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L442" t="n">
         <v>355.8</v>
@@ -22821,7 +22841,7 @@
         <v>220</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L443" t="n">
         <v>355.7</v>
@@ -22923,7 +22943,7 @@
         <v>221</v>
       </c>
       <c r="K445" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L445" t="n">
         <v>355.7</v>
@@ -22974,7 +22994,7 @@
         <v>221</v>
       </c>
       <c r="K446" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>355.6</v>
@@ -23076,7 +23096,7 @@
         <v>222</v>
       </c>
       <c r="K448" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L448" t="n">
         <v>355.5</v>
@@ -23127,7 +23147,7 @@
         <v>223</v>
       </c>
       <c r="K449" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L449" t="n">
         <v>355.5</v>
@@ -23178,7 +23198,7 @@
         <v>223</v>
       </c>
       <c r="K450" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L450" t="n">
         <v>355.6</v>
@@ -23229,7 +23249,7 @@
         <v>224</v>
       </c>
       <c r="K451" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L451" t="n">
         <v>355.8</v>
@@ -23280,7 +23300,7 @@
         <v>225</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L452" t="n">
         <v>355.9</v>
@@ -23433,7 +23453,7 @@
         <v>226</v>
       </c>
       <c r="K455" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L455" t="n">
         <v>356.1</v>
@@ -23484,7 +23504,7 @@
         <v>227</v>
       </c>
       <c r="K456" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>356.1</v>
@@ -23535,7 +23555,7 @@
         <v>227</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L457" t="n">
         <v>356.1</v>
@@ -23586,7 +23606,7 @@
         <v>228</v>
       </c>
       <c r="K458" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L458" t="n">
         <v>356.1</v>
@@ -23637,7 +23657,7 @@
         <v>228</v>
       </c>
       <c r="K459" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L459" t="n">
         <v>356</v>
@@ -23688,7 +23708,7 @@
         <v>228</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L460" t="n">
         <v>355.9</v>
@@ -23739,7 +23759,7 @@
         <v>228</v>
       </c>
       <c r="K461" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L461" t="n">
         <v>355.7</v>
@@ -23790,7 +23810,7 @@
         <v>228</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L462" t="n">
         <v>355.6</v>
@@ -23841,7 +23861,7 @@
         <v>228</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L463" t="n">
         <v>355.5</v>
@@ -23892,7 +23912,7 @@
         <v>229</v>
       </c>
       <c r="K464" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L464" t="n">
         <v>355.3</v>
@@ -23943,7 +23963,7 @@
         <v>230</v>
       </c>
       <c r="K465" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L465" t="n">
         <v>355.1</v>
@@ -23994,7 +24014,7 @@
         <v>231</v>
       </c>
       <c r="K466" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L466" t="n">
         <v>354.9</v>
@@ -24045,7 +24065,7 @@
         <v>232</v>
       </c>
       <c r="K467" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L467" t="n">
         <v>354.8</v>
@@ -24096,7 +24116,7 @@
         <v>233</v>
       </c>
       <c r="K468" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L468" t="n">
         <v>354.7</v>
@@ -24249,7 +24269,7 @@
         <v>234</v>
       </c>
       <c r="K471" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L471" t="n">
         <v>354.3</v>
@@ -24300,7 +24320,7 @@
         <v>235</v>
       </c>
       <c r="K472" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L472" t="n">
         <v>354.2</v>
@@ -24351,7 +24371,7 @@
         <v>236</v>
       </c>
       <c r="K473" t="n">
-        <v>-27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L473" t="n">
         <v>354</v>
@@ -24402,7 +24422,7 @@
         <v>237</v>
       </c>
       <c r="K474" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L474" t="n">
         <v>354</v>
@@ -24453,7 +24473,7 @@
         <v>237</v>
       </c>
       <c r="K475" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L475" t="n">
         <v>353.9</v>
@@ -24504,7 +24524,7 @@
         <v>238</v>
       </c>
       <c r="K476" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>354</v>
@@ -24555,7 +24575,7 @@
         <v>238</v>
       </c>
       <c r="K477" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L477" t="n">
         <v>354</v>
@@ -24606,7 +24626,7 @@
         <v>239</v>
       </c>
       <c r="K478" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>354</v>
@@ -24657,7 +24677,7 @@
         <v>239</v>
       </c>
       <c r="K479" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L479" t="n">
         <v>354</v>
@@ -24708,7 +24728,7 @@
         <v>239</v>
       </c>
       <c r="K480" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L480" t="n">
         <v>354</v>
@@ -24759,7 +24779,7 @@
         <v>239</v>
       </c>
       <c r="K481" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>354.1</v>
@@ -24810,7 +24830,7 @@
         <v>240</v>
       </c>
       <c r="K482" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>354</v>
@@ -24861,7 +24881,7 @@
         <v>240</v>
       </c>
       <c r="K483" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L483" t="n">
         <v>354</v>
@@ -24912,7 +24932,7 @@
         <v>240</v>
       </c>
       <c r="K484" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L484" t="n">
         <v>353.9</v>
@@ -24963,7 +24983,7 @@
         <v>241</v>
       </c>
       <c r="K485" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>353.9</v>
@@ -25014,7 +25034,7 @@
         <v>241</v>
       </c>
       <c r="K486" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L486" t="n">
         <v>353.8</v>
@@ -25065,7 +25085,7 @@
         <v>242</v>
       </c>
       <c r="K487" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>353.6</v>
@@ -25116,7 +25136,7 @@
         <v>242</v>
       </c>
       <c r="K488" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L488" t="n">
         <v>353.5</v>
@@ -25167,7 +25187,7 @@
         <v>242</v>
       </c>
       <c r="K489" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L489" t="n">
         <v>353.4</v>
@@ -25218,7 +25238,7 @@
         <v>242</v>
       </c>
       <c r="K490" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>353.3</v>
@@ -25320,7 +25340,7 @@
         <v>242</v>
       </c>
       <c r="K492" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>353.2</v>
@@ -25473,7 +25493,7 @@
         <v>244</v>
       </c>
       <c r="K495" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>353.2</v>
@@ -25524,7 +25544,7 @@
         <v>244</v>
       </c>
       <c r="K496" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L496" t="n">
         <v>353.1</v>
@@ -25575,7 +25595,7 @@
         <v>245</v>
       </c>
       <c r="K497" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L497" t="n">
         <v>353.2</v>
@@ -25626,7 +25646,7 @@
         <v>246</v>
       </c>
       <c r="K498" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>353.2</v>
@@ -25677,7 +25697,7 @@
         <v>247</v>
       </c>
       <c r="K499" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L499" t="n">
         <v>353.3</v>
@@ -25728,7 +25748,7 @@
         <v>247</v>
       </c>
       <c r="K500" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L500" t="n">
         <v>353.4</v>
@@ -25779,7 +25799,7 @@
         <v>247</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L501" t="n">
         <v>353.5</v>
@@ -25830,7 +25850,7 @@
         <v>247</v>
       </c>
       <c r="K502" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L502" t="n">
         <v>353.6</v>
@@ -25881,7 +25901,7 @@
         <v>247</v>
       </c>
       <c r="K503" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L503" t="n">
         <v>353.7</v>
@@ -25932,7 +25952,7 @@
         <v>247</v>
       </c>
       <c r="K504" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L504" t="n">
         <v>353.7</v>
@@ -25983,7 +26003,7 @@
         <v>248</v>
       </c>
       <c r="K505" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L505" t="n">
         <v>353.7</v>
@@ -26034,7 +26054,7 @@
         <v>248</v>
       </c>
       <c r="K506" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L506" t="n">
         <v>353.7</v>
@@ -26085,7 +26105,7 @@
         <v>249</v>
       </c>
       <c r="K507" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L507" t="n">
         <v>353.7</v>
@@ -26136,7 +26156,7 @@
         <v>249</v>
       </c>
       <c r="K508" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L508" t="n">
         <v>353.8</v>
@@ -26187,7 +26207,7 @@
         <v>250</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L509" t="n">
         <v>353.7</v>
@@ -26238,7 +26258,7 @@
         <v>251</v>
       </c>
       <c r="K510" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L510" t="n">
         <v>353.5</v>
@@ -26289,7 +26309,7 @@
         <v>252</v>
       </c>
       <c r="K511" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L511" t="n">
         <v>353.4</v>
@@ -26340,7 +26360,7 @@
         <v>252</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L512" t="n">
         <v>353.3</v>
@@ -26391,7 +26411,7 @@
         <v>253</v>
       </c>
       <c r="K513" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L513" t="n">
         <v>353.1</v>
@@ -26544,7 +26564,7 @@
         <v>255</v>
       </c>
       <c r="K516" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L516" t="n">
         <v>352.8</v>
@@ -26595,7 +26615,7 @@
         <v>256</v>
       </c>
       <c r="K517" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L517" t="n">
         <v>352.7</v>
@@ -26697,7 +26717,7 @@
         <v>256</v>
       </c>
       <c r="K519" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L519" t="n">
         <v>352.6</v>
@@ -26748,7 +26768,7 @@
         <v>256</v>
       </c>
       <c r="K520" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L520" t="n">
         <v>352.7</v>
@@ -26850,7 +26870,7 @@
         <v>257</v>
       </c>
       <c r="K522" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>352.5</v>
@@ -26901,7 +26921,7 @@
         <v>258</v>
       </c>
       <c r="K523" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L523" t="n">
         <v>352.6</v>
@@ -26952,7 +26972,7 @@
         <v>258</v>
       </c>
       <c r="K524" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L524" t="n">
         <v>352.7</v>
@@ -27003,7 +27023,7 @@
         <v>258</v>
       </c>
       <c r="K525" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L525" t="n">
         <v>352.7</v>
@@ -27105,7 +27125,7 @@
         <v>258</v>
       </c>
       <c r="K527" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L527" t="n">
         <v>352.8</v>
@@ -27156,7 +27176,7 @@
         <v>259</v>
       </c>
       <c r="K528" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>352.9</v>
@@ -27207,7 +27227,7 @@
         <v>261</v>
       </c>
       <c r="K529" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L529" t="n">
         <v>352.8</v>
@@ -27258,7 +27278,7 @@
         <v>262</v>
       </c>
       <c r="K530" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L530" t="n">
         <v>352.8</v>
@@ -27309,7 +27329,7 @@
         <v>263</v>
       </c>
       <c r="K531" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
         <v>352.8</v>
@@ -27411,7 +27431,7 @@
         <v>264</v>
       </c>
       <c r="K533" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L533" t="n">
         <v>352.9</v>
@@ -27462,7 +27482,7 @@
         <v>265</v>
       </c>
       <c r="K534" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L534" t="n">
         <v>353</v>
@@ -27513,7 +27533,7 @@
         <v>265</v>
       </c>
       <c r="K535" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L535" t="n">
         <v>353.1</v>
@@ -27564,7 +27584,7 @@
         <v>266</v>
       </c>
       <c r="K536" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L536" t="n">
         <v>353.1</v>
@@ -27615,7 +27635,7 @@
         <v>266</v>
       </c>
       <c r="K537" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L537" t="n">
         <v>353.1</v>
@@ -27666,7 +27686,7 @@
         <v>267</v>
       </c>
       <c r="K538" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L538" t="n">
         <v>353.1</v>
@@ -27717,7 +27737,7 @@
         <v>267</v>
       </c>
       <c r="K539" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L539" t="n">
         <v>353.3</v>
@@ -27768,7 +27788,7 @@
         <v>267</v>
       </c>
       <c r="K540" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L540" t="n">
         <v>353.4</v>
@@ -27819,7 +27839,7 @@
         <v>267</v>
       </c>
       <c r="K541" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L541" t="n">
         <v>353.6</v>
@@ -27870,7 +27890,7 @@
         <v>268</v>
       </c>
       <c r="K542" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L542" t="n">
         <v>353.6</v>
@@ -27921,7 +27941,7 @@
         <v>268</v>
       </c>
       <c r="K543" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L543" t="n">
         <v>353.6</v>
@@ -27972,7 +27992,7 @@
         <v>269</v>
       </c>
       <c r="K544" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>353.6</v>
@@ -28125,7 +28145,7 @@
         <v>270</v>
       </c>
       <c r="K547" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L547" t="n">
         <v>353.5</v>
@@ -28227,7 +28247,7 @@
         <v>271</v>
       </c>
       <c r="K549" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L549" t="n">
         <v>353.5</v>
@@ -28278,7 +28298,7 @@
         <v>271</v>
       </c>
       <c r="K550" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>353.5</v>
@@ -28329,7 +28349,7 @@
         <v>271</v>
       </c>
       <c r="K551" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L551" t="n">
         <v>353.5</v>
@@ -28380,7 +28400,7 @@
         <v>271</v>
       </c>
       <c r="K552" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L552" t="n">
         <v>353.6</v>
@@ -28431,7 +28451,7 @@
         <v>271</v>
       </c>
       <c r="K553" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>353.7</v>
@@ -28482,7 +28502,7 @@
         <v>271</v>
       </c>
       <c r="K554" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L554" t="n">
         <v>353.7</v>
@@ -28533,7 +28553,7 @@
         <v>271</v>
       </c>
       <c r="K555" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L555" t="n">
         <v>353.8</v>
@@ -28584,7 +28604,7 @@
         <v>271</v>
       </c>
       <c r="K556" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L556" t="n">
         <v>353.9</v>
@@ -28634,9 +28654,7 @@
       <c r="J557" t="n">
         <v>271</v>
       </c>
-      <c r="K557" t="n">
-        <v>20</v>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>354</v>
       </c>
@@ -28686,7 +28704,7 @@
         <v>272</v>
       </c>
       <c r="K558" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L558" t="n">
         <v>353.9</v>
@@ -28890,7 +28908,7 @@
         <v>273</v>
       </c>
       <c r="K562" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L562" t="n">
         <v>353.9</v>
@@ -28941,7 +28959,7 @@
         <v>273</v>
       </c>
       <c r="K563" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L563" t="n">
         <v>353.9</v>
@@ -28992,7 +29010,7 @@
         <v>274</v>
       </c>
       <c r="K564" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L564" t="n">
         <v>353.8</v>
@@ -29043,7 +29061,7 @@
         <v>275</v>
       </c>
       <c r="K565" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>353.8</v>
@@ -29094,7 +29112,7 @@
         <v>275</v>
       </c>
       <c r="K566" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L566" t="n">
         <v>353.8</v>
@@ -29145,7 +29163,7 @@
         <v>275</v>
       </c>
       <c r="K567" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L567" t="n">
         <v>353.8</v>
@@ -29247,7 +29265,7 @@
         <v>276</v>
       </c>
       <c r="K569" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L569" t="n">
         <v>354</v>
@@ -29298,7 +29316,7 @@
         <v>276</v>
       </c>
       <c r="K570" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L570" t="n">
         <v>354.1</v>
@@ -29349,7 +29367,7 @@
         <v>276</v>
       </c>
       <c r="K571" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L571" t="n">
         <v>354.2</v>
@@ -29400,7 +29418,7 @@
         <v>276</v>
       </c>
       <c r="K572" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L572" t="n">
         <v>354.3</v>
@@ -29451,7 +29469,7 @@
         <v>276</v>
       </c>
       <c r="K573" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L573" t="n">
         <v>354.4</v>
@@ -29502,7 +29520,7 @@
         <v>276</v>
       </c>
       <c r="K574" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L574" t="n">
         <v>354.6</v>
@@ -29553,7 +29571,7 @@
         <v>276</v>
       </c>
       <c r="K575" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L575" t="n">
         <v>354.7</v>
@@ -29604,7 +29622,7 @@
         <v>276</v>
       </c>
       <c r="K576" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L576" t="n">
         <v>354.8</v>
@@ -29655,7 +29673,7 @@
         <v>276</v>
       </c>
       <c r="K577" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L577" t="n">
         <v>354.9</v>
@@ -29705,9 +29723,7 @@
       <c r="J578" t="n">
         <v>276</v>
       </c>
-      <c r="K578" t="n">
-        <v>50</v>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>355</v>
       </c>
@@ -29756,9 +29772,7 @@
       <c r="J579" t="n">
         <v>276</v>
       </c>
-      <c r="K579" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>355</v>
       </c>
@@ -29807,9 +29821,7 @@
       <c r="J580" t="n">
         <v>276</v>
       </c>
-      <c r="K580" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>355</v>
       </c>
@@ -29858,9 +29870,7 @@
       <c r="J581" t="n">
         <v>276</v>
       </c>
-      <c r="K581" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>355</v>
       </c>
@@ -29910,7 +29920,7 @@
         <v>277</v>
       </c>
       <c r="K582" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L582" t="n">
         <v>354.9</v>
@@ -29961,7 +29971,7 @@
         <v>277</v>
       </c>
       <c r="K583" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L583" t="n">
         <v>354.8</v>
@@ -30012,7 +30022,7 @@
         <v>277</v>
       </c>
       <c r="K584" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L584" t="n">
         <v>354.7</v>
@@ -30063,7 +30073,7 @@
         <v>277</v>
       </c>
       <c r="K585" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L585" t="n">
         <v>354.6</v>
@@ -30114,7 +30124,7 @@
         <v>278</v>
       </c>
       <c r="K586" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L586" t="n">
         <v>354.4</v>
@@ -30165,7 +30175,7 @@
         <v>279</v>
       </c>
       <c r="K587" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L587" t="n">
         <v>354.3</v>
@@ -30216,7 +30226,7 @@
         <v>279</v>
       </c>
       <c r="K588" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L588" t="n">
         <v>354.2</v>
@@ -30369,7 +30379,7 @@
         <v>282</v>
       </c>
       <c r="K591" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L591" t="n">
         <v>354</v>
@@ -30420,7 +30430,7 @@
         <v>282</v>
       </c>
       <c r="K592" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L592" t="n">
         <v>354.1</v>
@@ -30471,7 +30481,7 @@
         <v>283</v>
       </c>
       <c r="K593" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L593" t="n">
         <v>354.1</v>
@@ -30522,7 +30532,7 @@
         <v>283</v>
       </c>
       <c r="K594" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L594" t="n">
         <v>354.1</v>
@@ -30573,7 +30583,7 @@
         <v>283</v>
       </c>
       <c r="K595" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L595" t="n">
         <v>354.1</v>
@@ -30624,7 +30634,7 @@
         <v>283</v>
       </c>
       <c r="K596" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L596" t="n">
         <v>354.2</v>
@@ -30675,7 +30685,7 @@
         <v>283</v>
       </c>
       <c r="K597" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L597" t="n">
         <v>354.2</v>
@@ -30726,7 +30736,7 @@
         <v>283</v>
       </c>
       <c r="K598" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L598" t="n">
         <v>354.2</v>
@@ -30777,7 +30787,7 @@
         <v>283</v>
       </c>
       <c r="K599" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L599" t="n">
         <v>354.3</v>
@@ -30828,7 +30838,7 @@
         <v>283</v>
       </c>
       <c r="K600" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L600" t="n">
         <v>354.2</v>
@@ -30879,7 +30889,7 @@
         <v>283</v>
       </c>
       <c r="K601" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L601" t="n">
         <v>354.1</v>
@@ -30929,9 +30939,7 @@
       <c r="J602" t="n">
         <v>283</v>
       </c>
-      <c r="K602" t="n">
-        <v>0</v>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>354</v>
       </c>
@@ -30981,7 +30989,7 @@
         <v>284</v>
       </c>
       <c r="K603" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L603" t="n">
         <v>354.1</v>
@@ -31032,7 +31040,7 @@
         <v>284</v>
       </c>
       <c r="K604" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L604" t="n">
         <v>354.2</v>
@@ -31083,7 +31091,7 @@
         <v>284</v>
       </c>
       <c r="K605" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L605" t="n">
         <v>354.3</v>
@@ -31134,7 +31142,7 @@
         <v>284</v>
       </c>
       <c r="K606" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L606" t="n">
         <v>354.4</v>
@@ -31185,7 +31193,7 @@
         <v>284</v>
       </c>
       <c r="K607" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L607" t="n">
         <v>354.5</v>
@@ -31236,7 +31244,7 @@
         <v>284</v>
       </c>
       <c r="K608" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L608" t="n">
         <v>354.6</v>
@@ -31287,7 +31295,7 @@
         <v>284</v>
       </c>
       <c r="K609" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L609" t="n">
         <v>354.7</v>
@@ -31338,7 +31346,7 @@
         <v>284</v>
       </c>
       <c r="K610" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L610" t="n">
         <v>354.8</v>
@@ -31389,7 +31397,7 @@
         <v>284</v>
       </c>
       <c r="K611" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L611" t="n">
         <v>354.9</v>
@@ -31440,7 +31448,7 @@
         <v>285</v>
       </c>
       <c r="K612" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L612" t="n">
         <v>355.1</v>
@@ -31491,7 +31499,7 @@
         <v>286</v>
       </c>
       <c r="K613" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L613" t="n">
         <v>355.1</v>
@@ -31542,7 +31550,7 @@
         <v>287</v>
       </c>
       <c r="K614" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L614" t="n">
         <v>355.2</v>
@@ -31593,7 +31601,7 @@
         <v>288</v>
       </c>
       <c r="K615" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L615" t="n">
         <v>355.2</v>
@@ -31644,7 +31652,7 @@
         <v>288</v>
       </c>
       <c r="K616" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L616" t="n">
         <v>355.2</v>
@@ -31695,7 +31703,7 @@
         <v>288</v>
       </c>
       <c r="K617" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L617" t="n">
         <v>355.2</v>
@@ -31746,7 +31754,7 @@
         <v>289</v>
       </c>
       <c r="K618" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L618" t="n">
         <v>355.1</v>
@@ -31797,7 +31805,7 @@
         <v>289</v>
       </c>
       <c r="K619" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L619" t="n">
         <v>355</v>
@@ -31848,7 +31856,7 @@
         <v>289</v>
       </c>
       <c r="K620" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L620" t="n">
         <v>354.9</v>
@@ -31899,7 +31907,7 @@
         <v>290</v>
       </c>
       <c r="K621" t="n">
-        <v>-14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L621" t="n">
         <v>354.7</v>
@@ -31950,7 +31958,7 @@
         <v>290</v>
       </c>
       <c r="K622" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L622" t="n">
         <v>354.4</v>
@@ -32001,7 +32009,7 @@
         <v>290</v>
       </c>
       <c r="K623" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L623" t="n">
         <v>354.2</v>
@@ -32052,7 +32060,7 @@
         <v>291</v>
       </c>
       <c r="K624" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L624" t="n">
         <v>354</v>
@@ -32103,7 +32111,7 @@
         <v>291</v>
       </c>
       <c r="K625" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L625" t="n">
         <v>353.9</v>
@@ -32154,7 +32162,7 @@
         <v>291</v>
       </c>
       <c r="K626" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L626" t="n">
         <v>353.8</v>
@@ -32205,7 +32213,7 @@
         <v>291</v>
       </c>
       <c r="K627" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L627" t="n">
         <v>353.7</v>
@@ -32256,7 +32264,7 @@
         <v>291</v>
       </c>
       <c r="K628" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L628" t="n">
         <v>353.7</v>
@@ -32307,7 +32315,7 @@
         <v>291</v>
       </c>
       <c r="K629" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>353.7</v>
@@ -32358,7 +32366,7 @@
         <v>291</v>
       </c>
       <c r="K630" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L630" t="n">
         <v>353.7</v>
@@ -32409,7 +32417,7 @@
         <v>291</v>
       </c>
       <c r="K631" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L631" t="n">
         <v>353.8</v>
@@ -32460,7 +32468,7 @@
         <v>292</v>
       </c>
       <c r="K632" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L632" t="n">
         <v>354</v>
@@ -32511,7 +32519,7 @@
         <v>293</v>
       </c>
       <c r="K633" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L633" t="n">
         <v>354.1</v>
@@ -32562,7 +32570,7 @@
         <v>293</v>
       </c>
       <c r="K634" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L634" t="n">
         <v>354.1</v>
@@ -32613,7 +32621,7 @@
         <v>294</v>
       </c>
       <c r="K635" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L635" t="n">
         <v>354.2</v>
@@ -32664,7 +32672,7 @@
         <v>294</v>
       </c>
       <c r="K636" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L636" t="n">
         <v>354.3</v>
@@ -32715,7 +32723,7 @@
         <v>295</v>
       </c>
       <c r="K637" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L637" t="n">
         <v>354.3</v>
@@ -32817,7 +32825,7 @@
         <v>296</v>
       </c>
       <c r="K639" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L639" t="n">
         <v>354.4</v>
@@ -32919,7 +32927,7 @@
         <v>297</v>
       </c>
       <c r="K641" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L641" t="n">
         <v>354.4</v>
@@ -32970,7 +32978,7 @@
         <v>298</v>
       </c>
       <c r="K642" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L642" t="n">
         <v>354.4</v>
@@ -33021,7 +33029,7 @@
         <v>299</v>
       </c>
       <c r="K643" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L643" t="n">
         <v>354.4</v>
@@ -33072,7 +33080,7 @@
         <v>299</v>
       </c>
       <c r="K644" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L644" t="n">
         <v>354.4</v>
@@ -33123,7 +33131,7 @@
         <v>299</v>
       </c>
       <c r="K645" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L645" t="n">
         <v>354.3</v>
@@ -33276,7 +33284,7 @@
         <v>299</v>
       </c>
       <c r="K648" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L648" t="n">
         <v>354.2</v>
@@ -33429,7 +33437,7 @@
         <v>299</v>
       </c>
       <c r="K651" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L651" t="n">
         <v>354.1</v>
@@ -33479,9 +33487,7 @@
       <c r="J652" t="n">
         <v>299</v>
       </c>
-      <c r="K652" t="n">
-        <v>-14.28571428571428</v>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>354</v>
       </c>
@@ -33530,9 +33536,7 @@
       <c r="J653" t="n">
         <v>299</v>
       </c>
-      <c r="K653" t="n">
-        <v>0</v>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>354</v>
       </c>
@@ -33581,9 +33585,7 @@
       <c r="J654" t="n">
         <v>299</v>
       </c>
-      <c r="K654" t="n">
-        <v>0</v>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>354</v>
       </c>
@@ -33633,7 +33635,7 @@
         <v>300</v>
       </c>
       <c r="K655" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L655" t="n">
         <v>354.1</v>
@@ -33684,7 +33686,7 @@
         <v>301</v>
       </c>
       <c r="K656" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L656" t="n">
         <v>354.1</v>
@@ -33837,7 +33839,7 @@
         <v>301</v>
       </c>
       <c r="K659" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L659" t="n">
         <v>354.1</v>
@@ -33939,7 +33941,7 @@
         <v>302</v>
       </c>
       <c r="K661" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L661" t="n">
         <v>354</v>
@@ -33990,7 +33992,7 @@
         <v>304</v>
       </c>
       <c r="K662" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L662" t="n">
         <v>354.1</v>
@@ -34092,7 +34094,7 @@
         <v>305</v>
       </c>
       <c r="K664" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L664" t="n">
         <v>354.1</v>
@@ -34245,7 +34247,7 @@
         <v>306</v>
       </c>
       <c r="K667" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L667" t="n">
         <v>353.9</v>
@@ -34347,7 +34349,7 @@
         <v>308</v>
       </c>
       <c r="K669" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L669" t="n">
         <v>353.8</v>
@@ -34398,7 +34400,7 @@
         <v>309</v>
       </c>
       <c r="K670" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L670" t="n">
         <v>353.8</v>
@@ -34449,7 +34451,7 @@
         <v>310</v>
       </c>
       <c r="K671" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L671" t="n">
         <v>353.8</v>
@@ -34500,7 +34502,7 @@
         <v>310</v>
       </c>
       <c r="K672" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L672" t="n">
         <v>353.6</v>
@@ -34551,7 +34553,7 @@
         <v>310</v>
       </c>
       <c r="K673" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L673" t="n">
         <v>353.5</v>
@@ -34653,7 +34655,7 @@
         <v>312</v>
       </c>
       <c r="K675" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L675" t="n">
         <v>353.4</v>
@@ -34704,7 +34706,7 @@
         <v>313</v>
       </c>
       <c r="K676" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L676" t="n">
         <v>353.4</v>
@@ -34755,7 +34757,7 @@
         <v>314</v>
       </c>
       <c r="K677" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L677" t="n">
         <v>353.4</v>
@@ -34806,7 +34808,7 @@
         <v>315</v>
       </c>
       <c r="K678" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L678" t="n">
         <v>353.4</v>
@@ -34857,7 +34859,7 @@
         <v>316</v>
       </c>
       <c r="K679" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L679" t="n">
         <v>353.4</v>
@@ -34908,7 +34910,7 @@
         <v>317</v>
       </c>
       <c r="K680" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L680" t="n">
         <v>353.4</v>
@@ -34959,7 +34961,7 @@
         <v>317</v>
       </c>
       <c r="K681" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L681" t="n">
         <v>353.5</v>
@@ -35010,7 +35012,7 @@
         <v>317</v>
       </c>
       <c r="K682" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L682" t="n">
         <v>353.6</v>
@@ -35061,7 +35063,7 @@
         <v>318</v>
       </c>
       <c r="K683" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L683" t="n">
         <v>353.6</v>
@@ -35112,7 +35114,7 @@
         <v>318</v>
       </c>
       <c r="K684" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L684" t="n">
         <v>353.5</v>
@@ -35214,7 +35216,7 @@
         <v>319</v>
       </c>
       <c r="K686" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L686" t="n">
         <v>353.6</v>
@@ -35265,7 +35267,7 @@
         <v>320</v>
       </c>
       <c r="K687" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L687" t="n">
         <v>353.6</v>
@@ -35316,7 +35318,7 @@
         <v>320</v>
       </c>
       <c r="K688" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L688" t="n">
         <v>353.5</v>
@@ -35367,7 +35369,7 @@
         <v>321</v>
       </c>
       <c r="K689" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L689" t="n">
         <v>353.6</v>
@@ -35469,7 +35471,7 @@
         <v>321</v>
       </c>
       <c r="K691" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L691" t="n">
         <v>353.6</v>
@@ -35520,7 +35522,7 @@
         <v>321</v>
       </c>
       <c r="K692" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L692" t="n">
         <v>353.6</v>
@@ -35673,7 +35675,7 @@
         <v>323</v>
       </c>
       <c r="K695" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L695" t="n">
         <v>353.7</v>
@@ -35724,7 +35726,7 @@
         <v>324</v>
       </c>
       <c r="K696" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L696" t="n">
         <v>353.6</v>
@@ -35775,7 +35777,7 @@
         <v>325</v>
       </c>
       <c r="K697" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L697" t="n">
         <v>353.7</v>
@@ -35877,7 +35879,7 @@
         <v>326</v>
       </c>
       <c r="K699" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L699" t="n">
         <v>353.7</v>
@@ -35928,7 +35930,7 @@
         <v>326</v>
       </c>
       <c r="K700" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L700" t="n">
         <v>353.6</v>
@@ -36030,7 +36032,7 @@
         <v>327</v>
       </c>
       <c r="K702" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L702" t="n">
         <v>353.6</v>
@@ -36081,7 +36083,7 @@
         <v>327</v>
       </c>
       <c r="K703" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L703" t="n">
         <v>353.7</v>
@@ -36132,7 +36134,7 @@
         <v>327</v>
       </c>
       <c r="K704" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L704" t="n">
         <v>353.7</v>
@@ -36183,7 +36185,7 @@
         <v>327</v>
       </c>
       <c r="K705" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L705" t="n">
         <v>353.7</v>
@@ -36285,7 +36287,7 @@
         <v>328</v>
       </c>
       <c r="K707" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L707" t="n">
         <v>353.7</v>
@@ -36336,7 +36338,7 @@
         <v>329</v>
       </c>
       <c r="K708" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L708" t="n">
         <v>353.7</v>
@@ -36387,7 +36389,7 @@
         <v>329</v>
       </c>
       <c r="K709" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L709" t="n">
         <v>353.8</v>
@@ -36591,7 +36593,7 @@
         <v>330</v>
       </c>
       <c r="K713" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L713" t="n">
         <v>353.8</v>
@@ -36642,7 +36644,7 @@
         <v>330</v>
       </c>
       <c r="K714" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L714" t="n">
         <v>353.7</v>
@@ -36693,7 +36695,7 @@
         <v>330</v>
       </c>
       <c r="K715" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L715" t="n">
         <v>353.6</v>
@@ -36744,7 +36746,7 @@
         <v>331</v>
       </c>
       <c r="K716" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L716" t="n">
         <v>353.6</v>
@@ -36846,7 +36848,7 @@
         <v>332</v>
       </c>
       <c r="K718" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L718" t="n">
         <v>353.6</v>
@@ -36897,7 +36899,7 @@
         <v>333</v>
       </c>
       <c r="K719" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L719" t="n">
         <v>353.6</v>
@@ -36948,7 +36950,7 @@
         <v>333</v>
       </c>
       <c r="K720" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L720" t="n">
         <v>353.6</v>
@@ -36999,7 +37001,7 @@
         <v>334</v>
       </c>
       <c r="K721" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L721" t="n">
         <v>353.5</v>
@@ -37050,7 +37052,7 @@
         <v>335</v>
       </c>
       <c r="K722" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L722" t="n">
         <v>353.5</v>
@@ -37101,7 +37103,7 @@
         <v>336</v>
       </c>
       <c r="K723" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L723" t="n">
         <v>353.5</v>
@@ -37152,7 +37154,7 @@
         <v>337</v>
       </c>
       <c r="K724" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L724" t="n">
         <v>353.6</v>
@@ -37203,7 +37205,7 @@
         <v>338</v>
       </c>
       <c r="K725" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L725" t="n">
         <v>353.8</v>
@@ -37254,7 +37256,7 @@
         <v>338</v>
       </c>
       <c r="K726" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L726" t="n">
         <v>353.9</v>
@@ -37305,7 +37307,7 @@
         <v>338</v>
       </c>
       <c r="K727" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L727" t="n">
         <v>354</v>
@@ -37356,7 +37358,7 @@
         <v>338</v>
       </c>
       <c r="K728" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L728" t="n">
         <v>354.2</v>
@@ -37458,7 +37460,7 @@
         <v>340</v>
       </c>
       <c r="K730" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L730" t="n">
         <v>354.3</v>
@@ -37509,7 +37511,7 @@
         <v>341</v>
       </c>
       <c r="K731" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L731" t="n">
         <v>354.6</v>
@@ -37560,7 +37562,7 @@
         <v>341</v>
       </c>
       <c r="K732" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L732" t="n">
         <v>354.8</v>
@@ -37611,7 +37613,7 @@
         <v>342</v>
       </c>
       <c r="K733" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L733" t="n">
         <v>355</v>
@@ -37662,7 +37664,7 @@
         <v>343</v>
       </c>
       <c r="K734" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L734" t="n">
         <v>355.2</v>
@@ -37713,7 +37715,7 @@
         <v>343</v>
       </c>
       <c r="K735" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L735" t="n">
         <v>355.3</v>
@@ -37764,7 +37766,7 @@
         <v>343</v>
       </c>
       <c r="K736" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L736" t="n">
         <v>355.4</v>
@@ -37815,7 +37817,7 @@
         <v>343</v>
       </c>
       <c r="K737" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L737" t="n">
         <v>355.5</v>
@@ -37866,7 +37868,7 @@
         <v>343</v>
       </c>
       <c r="K738" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L738" t="n">
         <v>355.6</v>
@@ -37917,7 +37919,7 @@
         <v>344</v>
       </c>
       <c r="K739" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L739" t="n">
         <v>355.9</v>
@@ -37968,7 +37970,7 @@
         <v>345</v>
       </c>
       <c r="K740" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L740" t="n">
         <v>356</v>
@@ -38019,7 +38021,7 @@
         <v>346</v>
       </c>
       <c r="K741" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L741" t="n">
         <v>356.1</v>
@@ -38070,7 +38072,7 @@
         <v>347</v>
       </c>
       <c r="K742" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L742" t="n">
         <v>356.1</v>
@@ -38121,7 +38123,7 @@
         <v>347</v>
       </c>
       <c r="K743" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L743" t="n">
         <v>356.2</v>
@@ -38172,7 +38174,7 @@
         <v>347</v>
       </c>
       <c r="K744" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L744" t="n">
         <v>356.2</v>
@@ -38274,7 +38276,7 @@
         <v>349</v>
       </c>
       <c r="K746" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L746" t="n">
         <v>356.3</v>
@@ -38325,7 +38327,7 @@
         <v>350</v>
       </c>
       <c r="K747" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L747" t="n">
         <v>356.4</v>
@@ -38376,7 +38378,7 @@
         <v>351</v>
       </c>
       <c r="K748" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L748" t="n">
         <v>356.6</v>
@@ -38478,7 +38480,7 @@
         <v>351</v>
       </c>
       <c r="K750" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L750" t="n">
         <v>356.9</v>
@@ -38529,7 +38531,7 @@
         <v>352</v>
       </c>
       <c r="K751" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L751" t="n">
         <v>356.9</v>
@@ -38631,7 +38633,7 @@
         <v>354</v>
       </c>
       <c r="K753" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L753" t="n">
         <v>357</v>
@@ -38682,7 +38684,7 @@
         <v>355</v>
       </c>
       <c r="K754" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L754" t="n">
         <v>357</v>
@@ -38784,7 +38786,7 @@
         <v>355</v>
       </c>
       <c r="K756" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L756" t="n">
         <v>356.9</v>
@@ -38835,7 +38837,7 @@
         <v>355</v>
       </c>
       <c r="K757" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L757" t="n">
         <v>356.8</v>
@@ -38886,7 +38888,7 @@
         <v>356</v>
       </c>
       <c r="K758" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L758" t="n">
         <v>356.7</v>
@@ -38937,7 +38939,7 @@
         <v>357</v>
       </c>
       <c r="K759" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L759" t="n">
         <v>356.7</v>
@@ -38988,7 +38990,7 @@
         <v>357</v>
       </c>
       <c r="K760" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L760" t="n">
         <v>356.7</v>
@@ -39039,7 +39041,7 @@
         <v>357</v>
       </c>
       <c r="K761" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L761" t="n">
         <v>356.8</v>
@@ -39090,7 +39092,7 @@
         <v>358</v>
       </c>
       <c r="K762" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L762" t="n">
         <v>357.1</v>
@@ -39141,7 +39143,7 @@
         <v>359</v>
       </c>
       <c r="K763" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L763" t="n">
         <v>357.2</v>
@@ -39192,7 +39194,7 @@
         <v>359</v>
       </c>
       <c r="K764" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L764" t="n">
         <v>357.4</v>
@@ -39243,7 +39245,7 @@
         <v>359</v>
       </c>
       <c r="K765" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L765" t="n">
         <v>357.6</v>
@@ -39294,7 +39296,7 @@
         <v>360</v>
       </c>
       <c r="K766" t="n">
-        <v>27.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L766" t="n">
         <v>357.9</v>
@@ -39345,7 +39347,7 @@
         <v>361</v>
       </c>
       <c r="K767" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L767" t="n">
         <v>358.1</v>
@@ -39396,7 +39398,7 @@
         <v>362</v>
       </c>
       <c r="K768" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L768" t="n">
         <v>358.3</v>
@@ -39498,7 +39500,7 @@
         <v>364</v>
       </c>
       <c r="K770" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L770" t="n">
         <v>358.4</v>
@@ -39549,7 +39551,7 @@
         <v>364</v>
       </c>
       <c r="K771" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L771" t="n">
         <v>358.5</v>
@@ -39600,7 +39602,7 @@
         <v>364</v>
       </c>
       <c r="K772" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L772" t="n">
         <v>358.5</v>
@@ -39651,7 +39653,7 @@
         <v>365</v>
       </c>
       <c r="K773" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L773" t="n">
         <v>358.5</v>
@@ -39702,7 +39704,7 @@
         <v>366</v>
       </c>
       <c r="K774" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L774" t="n">
         <v>358.4</v>
@@ -39753,7 +39755,7 @@
         <v>367</v>
       </c>
       <c r="K775" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L775" t="n">
         <v>358.2</v>
@@ -39804,7 +39806,7 @@
         <v>368</v>
       </c>
       <c r="K776" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L776" t="n">
         <v>358</v>
@@ -39855,7 +39857,7 @@
         <v>369</v>
       </c>
       <c r="K777" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L777" t="n">
         <v>358</v>
@@ -39906,7 +39908,7 @@
         <v>369</v>
       </c>
       <c r="K778" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L778" t="n">
         <v>357.9</v>
@@ -39957,7 +39959,7 @@
         <v>370</v>
       </c>
       <c r="K779" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L779" t="n">
         <v>357.8</v>
@@ -40008,7 +40010,7 @@
         <v>371</v>
       </c>
       <c r="K780" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L780" t="n">
         <v>357.7</v>
@@ -40059,7 +40061,7 @@
         <v>372</v>
       </c>
       <c r="K781" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L781" t="n">
         <v>357.5</v>
@@ -40161,7 +40163,7 @@
         <v>373</v>
       </c>
       <c r="K783" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L783" t="n">
         <v>357.3</v>
@@ -40212,7 +40214,7 @@
         <v>373</v>
       </c>
       <c r="K784" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L784" t="n">
         <v>357.4</v>
@@ -40263,7 +40265,7 @@
         <v>373</v>
       </c>
       <c r="K785" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L785" t="n">
         <v>357.6</v>
@@ -40314,7 +40316,7 @@
         <v>373</v>
       </c>
       <c r="K786" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L786" t="n">
         <v>357.7</v>
@@ -40416,7 +40418,7 @@
         <v>373</v>
       </c>
       <c r="K788" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L788" t="n">
         <v>357.7</v>
@@ -40467,7 +40469,7 @@
         <v>374</v>
       </c>
       <c r="K789" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L789" t="n">
         <v>357.7</v>
@@ -40518,7 +40520,7 @@
         <v>375</v>
       </c>
       <c r="K790" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L790" t="n">
         <v>357.7</v>
@@ -40569,7 +40571,7 @@
         <v>375</v>
       </c>
       <c r="K791" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L791" t="n">
         <v>357.8</v>
@@ -40620,7 +40622,7 @@
         <v>376</v>
       </c>
       <c r="K792" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L792" t="n">
         <v>357.8</v>
@@ -40722,7 +40724,7 @@
         <v>377</v>
       </c>
       <c r="K794" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L794" t="n">
         <v>357.8</v>
@@ -40773,7 +40775,7 @@
         <v>378</v>
       </c>
       <c r="K795" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L795" t="n">
         <v>357.7</v>
@@ -40824,7 +40826,7 @@
         <v>379</v>
       </c>
       <c r="K796" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L796" t="n">
         <v>357.7</v>
@@ -40875,7 +40877,7 @@
         <v>380</v>
       </c>
       <c r="K797" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L797" t="n">
         <v>357.6</v>
@@ -40926,7 +40928,7 @@
         <v>380</v>
       </c>
       <c r="K798" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L798" t="n">
         <v>357.5</v>
@@ -40977,7 +40979,7 @@
         <v>380</v>
       </c>
       <c r="K799" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L799" t="n">
         <v>357.5</v>
@@ -41079,7 +41081,7 @@
         <v>381</v>
       </c>
       <c r="K801" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L801" t="n">
         <v>357.5</v>
@@ -41130,7 +41132,7 @@
         <v>381</v>
       </c>
       <c r="K802" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L802" t="n">
         <v>357.6</v>
@@ -41232,7 +41234,7 @@
         <v>381</v>
       </c>
       <c r="K804" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L804" t="n">
         <v>357.6</v>
@@ -41334,7 +41336,7 @@
         <v>381</v>
       </c>
       <c r="K806" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L806" t="n">
         <v>357.7</v>
@@ -41385,7 +41387,7 @@
         <v>381</v>
       </c>
       <c r="K807" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L807" t="n">
         <v>357.8</v>
@@ -41436,7 +41438,7 @@
         <v>381</v>
       </c>
       <c r="K808" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L808" t="n">
         <v>357.9</v>
@@ -41487,7 +41489,7 @@
         <v>382</v>
       </c>
       <c r="K809" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L809" t="n">
         <v>357.9</v>
@@ -41538,7 +41540,7 @@
         <v>382</v>
       </c>
       <c r="K810" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L810" t="n">
         <v>357.8</v>
@@ -41589,7 +41591,7 @@
         <v>382</v>
       </c>
       <c r="K811" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L811" t="n">
         <v>357.7</v>
@@ -41640,7 +41642,7 @@
         <v>382</v>
       </c>
       <c r="K812" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L812" t="n">
         <v>357.6</v>
@@ -41691,7 +41693,7 @@
         <v>383</v>
       </c>
       <c r="K813" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L813" t="n">
         <v>357.4</v>
@@ -41742,7 +41744,7 @@
         <v>383</v>
       </c>
       <c r="K814" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L814" t="n">
         <v>357.2</v>
@@ -41793,7 +41795,7 @@
         <v>383</v>
       </c>
       <c r="K815" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L815" t="n">
         <v>357</v>
@@ -41844,7 +41846,7 @@
         <v>383</v>
       </c>
       <c r="K816" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L816" t="n">
         <v>356.8</v>
@@ -41895,7 +41897,7 @@
         <v>383</v>
       </c>
       <c r="K817" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L817" t="n">
         <v>356.6</v>
@@ -41946,7 +41948,7 @@
         <v>383</v>
       </c>
       <c r="K818" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L818" t="n">
         <v>356.4</v>
@@ -41997,7 +41999,7 @@
         <v>384</v>
       </c>
       <c r="K819" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L819" t="n">
         <v>356.2</v>
@@ -42150,7 +42152,7 @@
         <v>385</v>
       </c>
       <c r="K822" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L822" t="n">
         <v>355.7</v>
@@ -42201,7 +42203,7 @@
         <v>385</v>
       </c>
       <c r="K823" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L823" t="n">
         <v>355.7</v>
@@ -42252,7 +42254,7 @@
         <v>386</v>
       </c>
       <c r="K824" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L824" t="n">
         <v>355.8</v>
@@ -42303,7 +42305,7 @@
         <v>387</v>
       </c>
       <c r="K825" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L825" t="n">
         <v>355.8</v>
@@ -42354,7 +42356,7 @@
         <v>388</v>
       </c>
       <c r="K826" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L826" t="n">
         <v>355.9</v>
@@ -42405,7 +42407,7 @@
         <v>388</v>
       </c>
       <c r="K827" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L827" t="n">
         <v>356</v>
@@ -42456,7 +42458,7 @@
         <v>388</v>
       </c>
       <c r="K828" t="n">
-        <v>-14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L828" t="n">
         <v>356.1</v>
@@ -42507,7 +42509,7 @@
         <v>389</v>
       </c>
       <c r="K829" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L829" t="n">
         <v>356.4</v>
@@ -42558,7 +42560,7 @@
         <v>390</v>
       </c>
       <c r="K830" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L830" t="n">
         <v>356.6</v>
@@ -42609,7 +42611,7 @@
         <v>391</v>
       </c>
       <c r="K831" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L831" t="n">
         <v>356.9</v>
@@ -42660,7 +42662,7 @@
         <v>392</v>
       </c>
       <c r="K832" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L832" t="n">
         <v>357</v>
@@ -42711,7 +42713,7 @@
         <v>393</v>
       </c>
       <c r="K833" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L833" t="n">
         <v>357.2</v>
@@ -42762,7 +42764,7 @@
         <v>393</v>
       </c>
       <c r="K834" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L834" t="n">
         <v>357.3</v>
@@ -42813,7 +42815,7 @@
         <v>394</v>
       </c>
       <c r="K835" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L835" t="n">
         <v>357.4</v>
@@ -42864,7 +42866,7 @@
         <v>394</v>
       </c>
       <c r="K836" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L836" t="n">
         <v>357.4</v>
@@ -42915,7 +42917,7 @@
         <v>395</v>
       </c>
       <c r="K837" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L837" t="n">
         <v>357.5</v>
@@ -42966,7 +42968,7 @@
         <v>395</v>
       </c>
       <c r="K838" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L838" t="n">
         <v>357.6</v>
@@ -43017,7 +43019,7 @@
         <v>396</v>
       </c>
       <c r="K839" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L839" t="n">
         <v>357.5</v>
@@ -43068,7 +43070,7 @@
         <v>397</v>
       </c>
       <c r="K840" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L840" t="n">
         <v>357.6</v>
@@ -43119,7 +43121,7 @@
         <v>397</v>
       </c>
       <c r="K841" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L841" t="n">
         <v>357.6</v>
@@ -43170,7 +43172,7 @@
         <v>397</v>
       </c>
       <c r="K842" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L842" t="n">
         <v>357.7</v>
@@ -43221,7 +43223,7 @@
         <v>398</v>
       </c>
       <c r="K843" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L843" t="n">
         <v>357.6</v>
@@ -43323,7 +43325,7 @@
         <v>398</v>
       </c>
       <c r="K845" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L845" t="n">
         <v>357.5</v>
@@ -43374,7 +43376,7 @@
         <v>399</v>
       </c>
       <c r="K846" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L846" t="n">
         <v>357.4</v>
@@ -43425,7 +43427,7 @@
         <v>400</v>
       </c>
       <c r="K847" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L847" t="n">
         <v>357.3</v>
@@ -43527,7 +43529,7 @@
         <v>401</v>
       </c>
       <c r="K849" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L849" t="n">
         <v>357.1</v>
@@ -43578,7 +43580,7 @@
         <v>402</v>
       </c>
       <c r="K850" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L850" t="n">
         <v>357</v>
@@ -43629,7 +43631,7 @@
         <v>402</v>
       </c>
       <c r="K851" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L851" t="n">
         <v>356.9</v>
@@ -43680,7 +43682,7 @@
         <v>403</v>
       </c>
       <c r="K852" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L852" t="n">
         <v>356.7</v>
@@ -43731,7 +43733,7 @@
         <v>404</v>
       </c>
       <c r="K853" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L853" t="n">
         <v>356.7</v>
@@ -43782,7 +43784,7 @@
         <v>405</v>
       </c>
       <c r="K854" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L854" t="n">
         <v>356.6</v>
@@ -43833,7 +43835,7 @@
         <v>405</v>
       </c>
       <c r="K855" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L855" t="n">
         <v>356.5</v>
@@ -43884,7 +43886,7 @@
         <v>405</v>
       </c>
       <c r="K856" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L856" t="n">
         <v>356.5</v>
@@ -43986,7 +43988,7 @@
         <v>405</v>
       </c>
       <c r="K858" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L858" t="n">
         <v>356.3</v>
@@ -44037,7 +44039,7 @@
         <v>406</v>
       </c>
       <c r="K859" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L859" t="n">
         <v>356.2</v>
@@ -44088,7 +44090,7 @@
         <v>406</v>
       </c>
       <c r="K860" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L860" t="n">
         <v>356</v>
@@ -44139,7 +44141,7 @@
         <v>407</v>
       </c>
       <c r="K861" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L861" t="n">
         <v>355.9</v>
@@ -44190,7 +44192,7 @@
         <v>407</v>
       </c>
       <c r="K862" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L862" t="n">
         <v>355.9</v>
@@ -44241,7 +44243,7 @@
         <v>407</v>
       </c>
       <c r="K863" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L863" t="n">
         <v>355.8</v>
@@ -44292,7 +44294,7 @@
         <v>407</v>
       </c>
       <c r="K864" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L864" t="n">
         <v>355.8</v>
@@ -44343,7 +44345,7 @@
         <v>407</v>
       </c>
       <c r="K865" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L865" t="n">
         <v>355.8</v>
@@ -44445,7 +44447,7 @@
         <v>407</v>
       </c>
       <c r="K867" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L867" t="n">
         <v>355.8</v>
@@ -44496,7 +44498,7 @@
         <v>408</v>
       </c>
       <c r="K868" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L868" t="n">
         <v>355.7</v>
@@ -44547,7 +44549,7 @@
         <v>408</v>
       </c>
       <c r="K869" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L869" t="n">
         <v>355.7</v>
@@ -44598,7 +44600,7 @@
         <v>409</v>
       </c>
       <c r="K870" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L870" t="n">
         <v>355.8</v>
@@ -44649,7 +44651,7 @@
         <v>409</v>
       </c>
       <c r="K871" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L871" t="n">
         <v>355.8</v>
@@ -44802,7 +44804,7 @@
         <v>410</v>
       </c>
       <c r="K874" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L874" t="n">
         <v>355.6</v>
@@ -44853,7 +44855,7 @@
         <v>411</v>
       </c>
       <c r="K875" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L875" t="n">
         <v>355.4</v>
@@ -44904,7 +44906,7 @@
         <v>411</v>
       </c>
       <c r="K876" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L876" t="n">
         <v>355.2</v>
@@ -44955,7 +44957,7 @@
         <v>412</v>
       </c>
       <c r="K877" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L877" t="n">
         <v>355.1</v>
@@ -45006,7 +45008,7 @@
         <v>412</v>
       </c>
       <c r="K878" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L878" t="n">
         <v>355.1</v>
@@ -45057,7 +45059,7 @@
         <v>412</v>
       </c>
       <c r="K879" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L879" t="n">
         <v>355.1</v>
@@ -45108,7 +45110,7 @@
         <v>413</v>
       </c>
       <c r="K880" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L880" t="n">
         <v>354.9</v>
@@ -45159,7 +45161,7 @@
         <v>413</v>
       </c>
       <c r="K881" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L881" t="n">
         <v>354.7</v>
@@ -45312,7 +45314,7 @@
         <v>414</v>
       </c>
       <c r="K884" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L884" t="n">
         <v>354.4</v>
@@ -45363,7 +45365,7 @@
         <v>415</v>
       </c>
       <c r="K885" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L885" t="n">
         <v>354.4</v>
@@ -45414,7 +45416,7 @@
         <v>415</v>
       </c>
       <c r="K886" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L886" t="n">
         <v>354.4</v>
@@ -45465,7 +45467,7 @@
         <v>416</v>
       </c>
       <c r="K887" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L887" t="n">
         <v>354.4</v>
@@ -45516,7 +45518,7 @@
         <v>417</v>
       </c>
       <c r="K888" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L888" t="n">
         <v>354.3</v>
@@ -45567,7 +45569,7 @@
         <v>417</v>
       </c>
       <c r="K889" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L889" t="n">
         <v>354.2</v>
@@ -45618,7 +45620,7 @@
         <v>418</v>
       </c>
       <c r="K890" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L890" t="n">
         <v>354.3</v>
@@ -45669,7 +45671,7 @@
         <v>418</v>
       </c>
       <c r="K891" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L891" t="n">
         <v>354.4</v>
@@ -45720,7 +45722,7 @@
         <v>419</v>
       </c>
       <c r="K892" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L892" t="n">
         <v>354.4</v>
@@ -45771,7 +45773,7 @@
         <v>419</v>
       </c>
       <c r="K893" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L893" t="n">
         <v>354.4</v>
@@ -45822,7 +45824,7 @@
         <v>420</v>
       </c>
       <c r="K894" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L894" t="n">
         <v>354.4</v>
@@ -45924,7 +45926,7 @@
         <v>421</v>
       </c>
       <c r="K896" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L896" t="n">
         <v>354.4</v>
@@ -45975,7 +45977,7 @@
         <v>422</v>
       </c>
       <c r="K897" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L897" t="n">
         <v>354.4</v>
@@ -46026,7 +46028,7 @@
         <v>422</v>
       </c>
       <c r="K898" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L898" t="n">
         <v>354.5</v>
@@ -46077,7 +46079,7 @@
         <v>423</v>
       </c>
       <c r="K899" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L899" t="n">
         <v>354.5</v>
@@ -46128,7 +46130,7 @@
         <v>424</v>
       </c>
       <c r="K900" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L900" t="n">
         <v>354.3</v>
@@ -46179,7 +46181,7 @@
         <v>424</v>
       </c>
       <c r="K901" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L901" t="n">
         <v>354.1</v>
@@ -46281,7 +46283,7 @@
         <v>426</v>
       </c>
       <c r="K903" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L903" t="n">
         <v>354.2</v>
@@ -46332,7 +46334,7 @@
         <v>426</v>
       </c>
       <c r="K904" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L904" t="n">
         <v>354.2</v>
@@ -46434,7 +46436,7 @@
         <v>428</v>
       </c>
       <c r="K906" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L906" t="n">
         <v>354.3</v>
@@ -46485,7 +46487,7 @@
         <v>429</v>
       </c>
       <c r="K907" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L907" t="n">
         <v>354.2</v>
@@ -46536,7 +46538,7 @@
         <v>430</v>
       </c>
       <c r="K908" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L908" t="n">
         <v>354.2</v>
@@ -46587,7 +46589,7 @@
         <v>431</v>
       </c>
       <c r="K909" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L909" t="n">
         <v>354.4</v>
@@ -46638,7 +46640,7 @@
         <v>432</v>
       </c>
       <c r="K910" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L910" t="n">
         <v>354.6</v>
@@ -46689,7 +46691,7 @@
         <v>433</v>
       </c>
       <c r="K911" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L911" t="n">
         <v>354.7</v>
@@ -46740,7 +46742,7 @@
         <v>434</v>
       </c>
       <c r="K912" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L912" t="n">
         <v>354.8</v>
@@ -46791,7 +46793,7 @@
         <v>434</v>
       </c>
       <c r="K913" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L913" t="n">
         <v>354.8</v>
@@ -46842,7 +46844,7 @@
         <v>435</v>
       </c>
       <c r="K914" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L914" t="n">
         <v>354.7</v>
@@ -46893,7 +46895,7 @@
         <v>435</v>
       </c>
       <c r="K915" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L915" t="n">
         <v>354.7</v>
@@ -46944,7 +46946,7 @@
         <v>436</v>
       </c>
       <c r="K916" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L916" t="n">
         <v>354.7</v>
@@ -47046,7 +47048,7 @@
         <v>437</v>
       </c>
       <c r="K918" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L918" t="n">
         <v>354.7</v>
@@ -47097,7 +47099,7 @@
         <v>438</v>
       </c>
       <c r="K919" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L919" t="n">
         <v>354.6</v>
@@ -47148,7 +47150,7 @@
         <v>438</v>
       </c>
       <c r="K920" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L920" t="n">
         <v>354.6</v>
@@ -47199,7 +47201,7 @@
         <v>438</v>
       </c>
       <c r="K921" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L921" t="n">
         <v>354.7</v>
@@ -47250,7 +47252,7 @@
         <v>438</v>
       </c>
       <c r="K922" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L922" t="n">
         <v>354.7</v>
@@ -47301,7 +47303,7 @@
         <v>439</v>
       </c>
       <c r="K923" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L923" t="n">
         <v>354.8</v>
@@ -47352,7 +47354,7 @@
         <v>440</v>
       </c>
       <c r="K924" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L924" t="n">
         <v>354.9</v>
@@ -47403,7 +47405,7 @@
         <v>441</v>
       </c>
       <c r="K925" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L925" t="n">
         <v>355.1</v>
@@ -47454,7 +47456,7 @@
         <v>441</v>
       </c>
       <c r="K926" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L926" t="n">
         <v>355.2</v>
@@ -47505,7 +47507,7 @@
         <v>441</v>
       </c>
       <c r="K927" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L927" t="n">
         <v>355.3</v>
@@ -47607,7 +47609,7 @@
         <v>442</v>
       </c>
       <c r="K929" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L929" t="n">
         <v>355.4</v>
@@ -47709,7 +47711,7 @@
         <v>442</v>
       </c>
       <c r="K931" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L931" t="n">
         <v>355.4</v>
@@ -47760,7 +47762,7 @@
         <v>442</v>
       </c>
       <c r="K932" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L932" t="n">
         <v>355.4</v>
@@ -47811,7 +47813,7 @@
         <v>443</v>
       </c>
       <c r="K933" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L933" t="n">
         <v>355.2</v>
@@ -47862,7 +47864,7 @@
         <v>443</v>
       </c>
       <c r="K934" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L934" t="n">
         <v>355.1</v>
@@ -47913,7 +47915,7 @@
         <v>443</v>
       </c>
       <c r="K935" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L935" t="n">
         <v>354.9</v>
@@ -47964,7 +47966,7 @@
         <v>443</v>
       </c>
       <c r="K936" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L936" t="n">
         <v>354.7</v>
@@ -48015,7 +48017,7 @@
         <v>443</v>
       </c>
       <c r="K937" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L937" t="n">
         <v>354.5</v>
@@ -48066,7 +48068,7 @@
         <v>443</v>
       </c>
       <c r="K938" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L938" t="n">
         <v>354.4</v>
@@ -48117,7 +48119,7 @@
         <v>443</v>
       </c>
       <c r="K939" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L939" t="n">
         <v>354.3</v>
@@ -48168,7 +48170,7 @@
         <v>444</v>
       </c>
       <c r="K940" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L940" t="n">
         <v>354.1</v>
@@ -48219,7 +48221,7 @@
         <v>444</v>
       </c>
       <c r="K941" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L941" t="n">
         <v>353.9</v>
@@ -48270,7 +48272,7 @@
         <v>445</v>
       </c>
       <c r="K942" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L942" t="n">
         <v>353.8</v>
@@ -48321,7 +48323,7 @@
         <v>445</v>
       </c>
       <c r="K943" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L943" t="n">
         <v>353.8</v>
@@ -48372,7 +48374,7 @@
         <v>445</v>
       </c>
       <c r="K944" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L944" t="n">
         <v>353.8</v>
@@ -48423,7 +48425,7 @@
         <v>446</v>
       </c>
       <c r="K945" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L945" t="n">
         <v>353.7</v>
@@ -48474,7 +48476,7 @@
         <v>446</v>
       </c>
       <c r="K946" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L946" t="n">
         <v>353.6</v>
@@ -48525,7 +48527,7 @@
         <v>446</v>
       </c>
       <c r="K947" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L947" t="n">
         <v>353.5</v>
@@ -48576,7 +48578,7 @@
         <v>447</v>
       </c>
       <c r="K948" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L948" t="n">
         <v>353.5</v>
@@ -48627,7 +48629,7 @@
         <v>447</v>
       </c>
       <c r="K949" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L949" t="n">
         <v>353.5</v>
@@ -48678,7 +48680,7 @@
         <v>447</v>
       </c>
       <c r="K950" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L950" t="n">
         <v>353.6</v>
@@ -48729,7 +48731,7 @@
         <v>447</v>
       </c>
       <c r="K951" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L951" t="n">
         <v>353.7</v>
@@ -48780,7 +48782,7 @@
         <v>447</v>
       </c>
       <c r="K952" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L952" t="n">
         <v>353.7</v>
@@ -48831,7 +48833,7 @@
         <v>448</v>
       </c>
       <c r="K953" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L953" t="n">
         <v>353.6</v>
@@ -48882,7 +48884,7 @@
         <v>448</v>
       </c>
       <c r="K954" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L954" t="n">
         <v>353.5</v>
@@ -48933,7 +48935,7 @@
         <v>448</v>
       </c>
       <c r="K955" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L955" t="n">
         <v>353.5</v>
@@ -48984,7 +48986,7 @@
         <v>448</v>
       </c>
       <c r="K956" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L956" t="n">
         <v>353.5</v>
@@ -49035,7 +49037,7 @@
         <v>449</v>
       </c>
       <c r="K957" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L957" t="n">
         <v>353.4</v>
@@ -49086,7 +49088,7 @@
         <v>449</v>
       </c>
       <c r="K958" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L958" t="n">
         <v>353.2</v>
@@ -49137,7 +49139,7 @@
         <v>450</v>
       </c>
       <c r="K959" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L959" t="n">
         <v>353.1</v>
@@ -49188,7 +49190,7 @@
         <v>450</v>
       </c>
       <c r="K960" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L960" t="n">
         <v>353</v>
@@ -49239,7 +49241,7 @@
         <v>450</v>
       </c>
       <c r="K961" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L961" t="n">
         <v>352.9</v>
@@ -49290,7 +49292,7 @@
         <v>450</v>
       </c>
       <c r="K962" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L962" t="n">
         <v>352.8</v>
@@ -49341,7 +49343,7 @@
         <v>450</v>
       </c>
       <c r="K963" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L963" t="n">
         <v>352.8</v>
@@ -49392,7 +49394,7 @@
         <v>450</v>
       </c>
       <c r="K964" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L964" t="n">
         <v>352.8</v>
@@ -49443,7 +49445,7 @@
         <v>451</v>
       </c>
       <c r="K965" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L965" t="n">
         <v>352.7</v>
@@ -49494,7 +49496,7 @@
         <v>452</v>
       </c>
       <c r="K966" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L966" t="n">
         <v>352.7</v>
@@ -49545,7 +49547,7 @@
         <v>453</v>
       </c>
       <c r="K967" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L967" t="n">
         <v>352.9</v>
@@ -49596,7 +49598,7 @@
         <v>454</v>
       </c>
       <c r="K968" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L968" t="n">
         <v>353</v>
@@ -49647,7 +49649,7 @@
         <v>455</v>
       </c>
       <c r="K969" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L969" t="n">
         <v>353.1</v>
@@ -49698,7 +49700,7 @@
         <v>455</v>
       </c>
       <c r="K970" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L970" t="n">
         <v>353.2</v>
@@ -49749,7 +49751,7 @@
         <v>456</v>
       </c>
       <c r="K971" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L971" t="n">
         <v>353.2</v>
@@ -49800,7 +49802,7 @@
         <v>457</v>
       </c>
       <c r="K972" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L972" t="n">
         <v>353.3</v>
@@ -49902,7 +49904,7 @@
         <v>458</v>
       </c>
       <c r="K974" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L974" t="n">
         <v>353.3</v>
@@ -49953,7 +49955,7 @@
         <v>459</v>
       </c>
       <c r="K975" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L975" t="n">
         <v>353.5</v>
@@ -50004,7 +50006,7 @@
         <v>460</v>
       </c>
       <c r="K976" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L976" t="n">
         <v>353.5</v>
@@ -50055,7 +50057,7 @@
         <v>461</v>
       </c>
       <c r="K977" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L977" t="n">
         <v>353.5</v>
@@ -50106,7 +50108,7 @@
         <v>461</v>
       </c>
       <c r="K978" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L978" t="n">
         <v>353.6</v>
@@ -50157,7 +50159,7 @@
         <v>461</v>
       </c>
       <c r="K979" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L979" t="n">
         <v>353.6</v>
@@ -50259,7 +50261,7 @@
         <v>463</v>
       </c>
       <c r="K981" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L981" t="n">
         <v>353.4</v>
@@ -50310,7 +50312,7 @@
         <v>463</v>
       </c>
       <c r="K982" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L982" t="n">
         <v>353.2</v>
@@ -50361,7 +50363,7 @@
         <v>463</v>
       </c>
       <c r="K983" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L983" t="n">
         <v>353.1</v>
@@ -50412,7 +50414,7 @@
         <v>463</v>
       </c>
       <c r="K984" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L984" t="n">
         <v>353</v>
@@ -50463,7 +50465,7 @@
         <v>463</v>
       </c>
       <c r="K985" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L985" t="n">
         <v>352.8</v>
@@ -50514,7 +50516,7 @@
         <v>463</v>
       </c>
       <c r="K986" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L986" t="n">
         <v>352.7</v>
@@ -50565,7 +50567,7 @@
         <v>463</v>
       </c>
       <c r="K987" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L987" t="n">
         <v>352.5</v>
@@ -50616,7 +50618,7 @@
         <v>463</v>
       </c>
       <c r="K988" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L988" t="n">
         <v>352.3</v>
@@ -50667,7 +50669,7 @@
         <v>463</v>
       </c>
       <c r="K989" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L989" t="n">
         <v>352.1</v>
@@ -50717,9 +50719,7 @@
       <c r="J990" t="n">
         <v>463</v>
       </c>
-      <c r="K990" t="n">
-        <v>-25</v>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>352</v>
       </c>
@@ -50769,7 +50769,7 @@
         <v>464</v>
       </c>
       <c r="K991" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L991" t="n">
         <v>352.1</v>
@@ -50820,7 +50820,7 @@
         <v>465</v>
       </c>
       <c r="K992" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L992" t="n">
         <v>352.1</v>
@@ -50871,7 +50871,7 @@
         <v>466</v>
       </c>
       <c r="K993" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L993" t="n">
         <v>352</v>
@@ -50922,7 +50922,7 @@
         <v>466</v>
       </c>
       <c r="K994" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L994" t="n">
         <v>351.9</v>
@@ -50973,7 +50973,7 @@
         <v>466</v>
       </c>
       <c r="K995" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L995" t="n">
         <v>351.8</v>
@@ -51075,7 +51075,7 @@
         <v>466</v>
       </c>
       <c r="K997" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L997" t="n">
         <v>351.6</v>
@@ -51126,7 +51126,7 @@
         <v>466</v>
       </c>
       <c r="K998" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L998" t="n">
         <v>351.5</v>
@@ -51177,7 +51177,7 @@
         <v>466</v>
       </c>
       <c r="K999" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L999" t="n">
         <v>351.4</v>
@@ -51228,7 +51228,7 @@
         <v>466</v>
       </c>
       <c r="K1000" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L1000" t="n">
         <v>351.3</v>
@@ -51279,7 +51279,7 @@
         <v>466</v>
       </c>
       <c r="K1001" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L1001" t="n">
         <v>351.1</v>
@@ -51329,9 +51329,7 @@
       <c r="J1002" t="n">
         <v>466</v>
       </c>
-      <c r="K1002" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>351</v>
       </c>
@@ -51380,9 +51378,7 @@
       <c r="J1003" t="n">
         <v>466</v>
       </c>
-      <c r="K1003" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>351</v>
       </c>
@@ -51432,7 +51428,7 @@
         <v>467</v>
       </c>
       <c r="K1004" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L1004" t="n">
         <v>351.1</v>
@@ -51483,7 +51479,7 @@
         <v>468</v>
       </c>
       <c r="K1005" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1005" t="n">
         <v>351.1</v>
@@ -51534,7 +51530,7 @@
         <v>468</v>
       </c>
       <c r="K1006" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1006" t="n">
         <v>351.1</v>
@@ -51585,7 +51581,7 @@
         <v>468</v>
       </c>
       <c r="K1007" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1007" t="n">
         <v>351.1</v>
@@ -51636,7 +51632,7 @@
         <v>468</v>
       </c>
       <c r="K1008" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1008" t="n">
         <v>351.1</v>
@@ -51687,7 +51683,7 @@
         <v>469</v>
       </c>
       <c r="K1009" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1009" t="n">
         <v>351.2</v>
@@ -51738,7 +51734,7 @@
         <v>470</v>
       </c>
       <c r="K1010" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L1010" t="n">
         <v>351.2</v>
@@ -51789,7 +51785,7 @@
         <v>471</v>
       </c>
       <c r="K1011" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L1011" t="n">
         <v>351.3</v>
@@ -51840,7 +51836,7 @@
         <v>472</v>
       </c>
       <c r="K1012" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L1012" t="n">
         <v>351.3</v>
@@ -51891,7 +51887,7 @@
         <v>472</v>
       </c>
       <c r="K1013" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L1013" t="n">
         <v>351.3</v>
@@ -52095,7 +52091,7 @@
         <v>473</v>
       </c>
       <c r="K1017" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L1017" t="n">
         <v>351.3</v>
@@ -52146,7 +52142,7 @@
         <v>473</v>
       </c>
       <c r="K1018" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L1018" t="n">
         <v>351.4</v>
@@ -52197,7 +52193,7 @@
         <v>473</v>
       </c>
       <c r="K1019" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1019" t="n">
         <v>351.4</v>
@@ -52248,7 +52244,7 @@
         <v>474</v>
       </c>
       <c r="K1020" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1020" t="n">
         <v>351.6</v>
@@ -52299,7 +52295,7 @@
         <v>474</v>
       </c>
       <c r="K1021" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L1021" t="n">
         <v>351.7</v>
@@ -52350,7 +52346,7 @@
         <v>475</v>
       </c>
       <c r="K1022" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1022" t="n">
         <v>351.8</v>
@@ -52401,7 +52397,7 @@
         <v>475</v>
       </c>
       <c r="K1023" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1023" t="n">
         <v>351.9</v>
@@ -52452,7 +52448,7 @@
         <v>476</v>
       </c>
       <c r="K1024" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L1024" t="n">
         <v>352.1</v>
@@ -52503,7 +52499,7 @@
         <v>476</v>
       </c>
       <c r="K1025" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L1025" t="n">
         <v>352.3</v>
@@ -52554,7 +52550,7 @@
         <v>477</v>
       </c>
       <c r="K1026" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L1026" t="n">
         <v>352.4</v>
@@ -52656,7 +52652,7 @@
         <v>479</v>
       </c>
       <c r="K1028" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L1028" t="n">
         <v>352.5</v>
@@ -52707,7 +52703,7 @@
         <v>479</v>
       </c>
       <c r="K1029" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L1029" t="n">
         <v>352.5</v>
@@ -52758,7 +52754,7 @@
         <v>479</v>
       </c>
       <c r="K1030" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L1030" t="n">
         <v>352.4</v>
@@ -52809,7 +52805,7 @@
         <v>480</v>
       </c>
       <c r="K1031" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L1031" t="n">
         <v>352.2</v>
@@ -52860,7 +52856,7 @@
         <v>481</v>
       </c>
       <c r="K1032" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L1032" t="n">
         <v>352.2</v>
@@ -52911,7 +52907,7 @@
         <v>481</v>
       </c>
       <c r="K1033" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L1033" t="n">
         <v>352.2</v>
@@ -52962,7 +52958,7 @@
         <v>482</v>
       </c>
       <c r="K1034" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1034" t="n">
         <v>352</v>
@@ -53013,7 +53009,7 @@
         <v>483</v>
       </c>
       <c r="K1035" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L1035" t="n">
         <v>351.9</v>
@@ -53064,7 +53060,7 @@
         <v>483</v>
       </c>
       <c r="K1036" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L1036" t="n">
         <v>351.9</v>
@@ -53115,7 +53111,7 @@
         <v>484</v>
       </c>
       <c r="K1037" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L1037" t="n">
         <v>351.7</v>
@@ -53217,7 +53213,7 @@
         <v>486</v>
       </c>
       <c r="K1039" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1039" t="n">
         <v>351.6</v>
@@ -53268,7 +53264,7 @@
         <v>487</v>
       </c>
       <c r="K1040" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L1040" t="n">
         <v>351.6</v>
@@ -53319,7 +53315,7 @@
         <v>487</v>
       </c>
       <c r="K1041" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L1041" t="n">
         <v>351.7</v>
@@ -53421,7 +53417,7 @@
         <v>487</v>
       </c>
       <c r="K1043" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L1043" t="n">
         <v>351.7</v>
@@ -53472,7 +53468,7 @@
         <v>488</v>
       </c>
       <c r="K1044" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L1044" t="n">
         <v>351.7</v>
@@ -53523,7 +53519,7 @@
         <v>488</v>
       </c>
       <c r="K1045" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L1045" t="n">
         <v>351.6</v>
@@ -53574,7 +53570,7 @@
         <v>488</v>
       </c>
       <c r="K1046" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L1046" t="n">
         <v>351.5</v>
@@ -53625,7 +53621,7 @@
         <v>488</v>
       </c>
       <c r="K1047" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1047" t="n">
         <v>351.5</v>
@@ -53676,7 +53672,7 @@
         <v>488</v>
       </c>
       <c r="K1048" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L1048" t="n">
         <v>351.4</v>
@@ -53727,7 +53723,7 @@
         <v>488</v>
       </c>
       <c r="K1049" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L1049" t="n">
         <v>351.4</v>
@@ -53778,7 +53774,7 @@
         <v>488</v>
       </c>
       <c r="K1050" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L1050" t="n">
         <v>351.3</v>
@@ -53829,7 +53825,7 @@
         <v>488</v>
       </c>
       <c r="K1051" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L1051" t="n">
         <v>351.2</v>
@@ -53880,7 +53876,7 @@
         <v>488</v>
       </c>
       <c r="K1052" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L1052" t="n">
         <v>351.1</v>
@@ -53930,9 +53926,7 @@
       <c r="J1053" t="n">
         <v>488</v>
       </c>
-      <c r="K1053" t="n">
-        <v>-14.28571428571428</v>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>351</v>
       </c>
@@ -53982,7 +53976,7 @@
         <v>489</v>
       </c>
       <c r="K1054" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L1054" t="n">
         <v>350.9</v>
@@ -54033,7 +54027,7 @@
         <v>489</v>
       </c>
       <c r="K1055" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L1055" t="n">
         <v>350.8</v>
@@ -54084,7 +54078,7 @@
         <v>489</v>
       </c>
       <c r="K1056" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L1056" t="n">
         <v>350.7</v>
@@ -54186,7 +54180,7 @@
         <v>490</v>
       </c>
       <c r="K1058" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1058" t="n">
         <v>350.7</v>
@@ -54288,7 +54282,7 @@
         <v>490</v>
       </c>
       <c r="K1060" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L1060" t="n">
         <v>350.7</v>
@@ -54339,7 +54333,7 @@
         <v>491</v>
       </c>
       <c r="K1061" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1061" t="n">
         <v>350.8</v>
@@ -54390,7 +54384,7 @@
         <v>492</v>
       </c>
       <c r="K1062" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1062" t="n">
         <v>350.8</v>
@@ -54441,7 +54435,7 @@
         <v>492</v>
       </c>
       <c r="K1063" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1063" t="n">
         <v>350.8</v>
@@ -54492,7 +54486,7 @@
         <v>493</v>
       </c>
       <c r="K1064" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L1064" t="n">
         <v>351</v>
@@ -54543,7 +54537,7 @@
         <v>494</v>
       </c>
       <c r="K1065" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L1065" t="n">
         <v>351.1</v>
@@ -54594,7 +54588,7 @@
         <v>495</v>
       </c>
       <c r="K1066" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L1066" t="n">
         <v>351.3</v>
@@ -54645,7 +54639,7 @@
         <v>495</v>
       </c>
       <c r="K1067" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L1067" t="n">
         <v>351.4</v>
@@ -54696,7 +54690,7 @@
         <v>495</v>
       </c>
       <c r="K1068" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L1068" t="n">
         <v>351.5</v>
@@ -54747,7 +54741,7 @@
         <v>495</v>
       </c>
       <c r="K1069" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L1069" t="n">
         <v>351.6</v>
@@ -54798,7 +54792,7 @@
         <v>496</v>
       </c>
       <c r="K1070" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L1070" t="n">
         <v>351.8</v>
@@ -54849,7 +54843,7 @@
         <v>497</v>
       </c>
       <c r="K1071" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L1071" t="n">
         <v>351.8</v>
@@ -54900,7 +54894,7 @@
         <v>497</v>
       </c>
       <c r="K1072" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L1072" t="n">
         <v>351.9</v>
@@ -54951,7 +54945,7 @@
         <v>497</v>
       </c>
       <c r="K1073" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L1073" t="n">
         <v>352</v>
@@ -55002,7 +54996,7 @@
         <v>497</v>
       </c>
       <c r="K1074" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1074" t="n">
         <v>352</v>
@@ -55104,7 +55098,7 @@
         <v>499</v>
       </c>
       <c r="K1076" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L1076" t="n">
         <v>352.2</v>
@@ -55257,7 +55251,7 @@
         <v>500</v>
       </c>
       <c r="K1079" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L1079" t="n">
         <v>352.5</v>
@@ -55308,7 +55302,7 @@
         <v>500</v>
       </c>
       <c r="K1080" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1080" t="n">
         <v>352.5</v>
@@ -55359,7 +55353,7 @@
         <v>500</v>
       </c>
       <c r="K1081" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1081" t="n">
         <v>352.6</v>
@@ -55410,7 +55404,7 @@
         <v>501</v>
       </c>
       <c r="K1082" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L1082" t="n">
         <v>352.6</v>
@@ -55512,7 +55506,7 @@
         <v>503</v>
       </c>
       <c r="K1084" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L1084" t="n">
         <v>352.7</v>
@@ -55563,7 +55557,7 @@
         <v>503</v>
       </c>
       <c r="K1085" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L1085" t="n">
         <v>352.6</v>
@@ -55614,7 +55608,7 @@
         <v>504</v>
       </c>
       <c r="K1086" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L1086" t="n">
         <v>352.7</v>
@@ -55665,7 +55659,7 @@
         <v>504</v>
       </c>
       <c r="K1087" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L1087" t="n">
         <v>352.7</v>
@@ -55716,7 +55710,7 @@
         <v>504</v>
       </c>
       <c r="K1088" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L1088" t="n">
         <v>352.7</v>
@@ -55767,7 +55761,7 @@
         <v>505</v>
       </c>
       <c r="K1089" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L1089" t="n">
         <v>352.6</v>
@@ -55818,7 +55812,7 @@
         <v>505</v>
       </c>
       <c r="K1090" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L1090" t="n">
         <v>352.5</v>
@@ -55920,7 +55914,7 @@
         <v>505</v>
       </c>
       <c r="K1092" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1092" t="n">
         <v>352.4</v>
@@ -56022,7 +56016,7 @@
         <v>506</v>
       </c>
       <c r="K1094" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1094" t="n">
         <v>352.2</v>
@@ -56073,7 +56067,7 @@
         <v>506</v>
       </c>
       <c r="K1095" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L1095" t="n">
         <v>352.1</v>
@@ -56124,7 +56118,7 @@
         <v>506</v>
       </c>
       <c r="K1096" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L1096" t="n">
         <v>351.9</v>
@@ -56175,7 +56169,7 @@
         <v>507</v>
       </c>
       <c r="K1097" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1097" t="n">
         <v>351.8</v>
@@ -56226,7 +56220,7 @@
         <v>507</v>
       </c>
       <c r="K1098" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L1098" t="n">
         <v>351.7</v>
@@ -56277,7 +56271,7 @@
         <v>507</v>
       </c>
       <c r="K1099" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L1099" t="n">
         <v>351.7</v>
@@ -56328,7 +56322,7 @@
         <v>508</v>
       </c>
       <c r="K1100" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1100" t="n">
         <v>351.8</v>
@@ -56379,7 +56373,7 @@
         <v>508</v>
       </c>
       <c r="K1101" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1101" t="n">
         <v>351.9</v>
@@ -56430,7 +56424,7 @@
         <v>508</v>
       </c>
       <c r="K1102" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1102" t="n">
         <v>352</v>
@@ -56481,7 +56475,7 @@
         <v>509</v>
       </c>
       <c r="K1103" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1103" t="n">
         <v>352</v>
@@ -56532,7 +56526,7 @@
         <v>510</v>
       </c>
       <c r="K1104" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L1104" t="n">
         <v>352.2</v>
@@ -56583,7 +56577,7 @@
         <v>510</v>
       </c>
       <c r="K1105" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L1105" t="n">
         <v>352.4</v>
@@ -56634,7 +56628,7 @@
         <v>510</v>
       </c>
       <c r="K1106" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1106" t="n">
         <v>352.6</v>
@@ -56685,7 +56679,7 @@
         <v>511</v>
       </c>
       <c r="K1107" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L1107" t="n">
         <v>352.6</v>
@@ -56736,7 +56730,7 @@
         <v>511</v>
       </c>
       <c r="K1108" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L1108" t="n">
         <v>352.6</v>
@@ -56787,7 +56781,7 @@
         <v>511</v>
       </c>
       <c r="K1109" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1109" t="n">
         <v>352.6</v>
@@ -56838,7 +56832,7 @@
         <v>511</v>
       </c>
       <c r="K1110" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1110" t="n">
         <v>352.5</v>
@@ -56889,7 +56883,7 @@
         <v>511</v>
       </c>
       <c r="K1111" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1111" t="n">
         <v>352.4</v>
@@ -56991,7 +56985,7 @@
         <v>511</v>
       </c>
       <c r="K1113" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L1113" t="n">
         <v>352.3</v>
@@ -57042,7 +57036,7 @@
         <v>512</v>
       </c>
       <c r="K1114" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L1114" t="n">
         <v>352.3</v>
@@ -57093,7 +57087,7 @@
         <v>512</v>
       </c>
       <c r="K1115" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L1115" t="n">
         <v>352.3</v>
@@ -57144,7 +57138,7 @@
         <v>514</v>
       </c>
       <c r="K1116" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1116" t="n">
         <v>352.1</v>
@@ -57195,7 +57189,7 @@
         <v>514</v>
       </c>
       <c r="K1117" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1117" t="n">
         <v>352</v>
@@ -57246,7 +57240,7 @@
         <v>515</v>
       </c>
       <c r="K1118" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L1118" t="n">
         <v>351.8</v>
@@ -57297,7 +57291,7 @@
         <v>515</v>
       </c>
       <c r="K1119" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L1119" t="n">
         <v>351.6</v>
@@ -57348,7 +57342,7 @@
         <v>516</v>
       </c>
       <c r="K1120" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L1120" t="n">
         <v>351.3</v>
@@ -57399,7 +57393,7 @@
         <v>516</v>
       </c>
       <c r="K1121" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L1121" t="n">
         <v>351</v>
@@ -57450,7 +57444,7 @@
         <v>517</v>
       </c>
       <c r="K1122" t="n">
-        <v>-55.55555555555556</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L1122" t="n">
         <v>350.6</v>
@@ -57501,7 +57495,7 @@
         <v>517</v>
       </c>
       <c r="K1123" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L1123" t="n">
         <v>350.2</v>
@@ -57552,7 +57546,7 @@
         <v>518</v>
       </c>
       <c r="K1124" t="n">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="L1124" t="n">
         <v>349.6</v>
@@ -57603,7 +57597,7 @@
         <v>518</v>
       </c>
       <c r="K1125" t="n">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="L1125" t="n">
         <v>349</v>
@@ -57654,7 +57648,7 @@
         <v>518</v>
       </c>
       <c r="K1126" t="n">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="L1126" t="n">
         <v>348.6</v>
@@ -57705,7 +57699,7 @@
         <v>518</v>
       </c>
       <c r="K1127" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L1127" t="n">
         <v>348.2</v>
@@ -57807,7 +57801,7 @@
         <v>519</v>
       </c>
       <c r="K1129" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1129" t="n">
         <v>347.8</v>
@@ -57858,7 +57852,7 @@
         <v>520</v>
       </c>
       <c r="K1130" t="n">
-        <v>-55.55555555555556</v>
+        <v>-50</v>
       </c>
       <c r="L1130" t="n">
         <v>347.6</v>
@@ -57909,7 +57903,7 @@
         <v>520</v>
       </c>
       <c r="K1131" t="n">
-        <v>-55.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1131" t="n">
         <v>347.4</v>
@@ -57960,7 +57954,7 @@
         <v>521</v>
       </c>
       <c r="K1132" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L1132" t="n">
         <v>347.4</v>
@@ -58011,7 +58005,7 @@
         <v>522</v>
       </c>
       <c r="K1133" t="n">
-        <v>-45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L1133" t="n">
         <v>347.3</v>
@@ -58062,7 +58056,7 @@
         <v>522</v>
       </c>
       <c r="K1134" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="L1134" t="n">
         <v>347.3</v>
@@ -58113,7 +58107,7 @@
         <v>522</v>
       </c>
       <c r="K1135" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="L1135" t="n">
         <v>347.3</v>
@@ -58164,7 +58158,7 @@
         <v>523</v>
       </c>
       <c r="K1136" t="n">
-        <v>-33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L1136" t="n">
         <v>347.4</v>
@@ -58215,7 +58209,7 @@
         <v>525</v>
       </c>
       <c r="K1137" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1137" t="n">
         <v>347.3</v>
@@ -58266,7 +58260,7 @@
         <v>526</v>
       </c>
       <c r="K1138" t="n">
-        <v>-27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1138" t="n">
         <v>347.2</v>
@@ -58317,7 +58311,7 @@
         <v>526</v>
       </c>
       <c r="K1139" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L1139" t="n">
         <v>347.1</v>
@@ -58368,7 +58362,7 @@
         <v>526</v>
       </c>
       <c r="K1140" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1140" t="n">
         <v>347.1</v>
@@ -58419,7 +58413,7 @@
         <v>527</v>
       </c>
       <c r="K1141" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L1141" t="n">
         <v>347.2</v>
@@ -58470,7 +58464,7 @@
         <v>527</v>
       </c>
       <c r="K1142" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L1142" t="n">
         <v>347.2</v>
@@ -58521,7 +58515,7 @@
         <v>527</v>
       </c>
       <c r="K1143" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L1143" t="n">
         <v>347.3</v>
@@ -58572,7 +58566,7 @@
         <v>527</v>
       </c>
       <c r="K1144" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L1144" t="n">
         <v>347.4</v>
@@ -58623,7 +58617,7 @@
         <v>528</v>
       </c>
       <c r="K1145" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L1145" t="n">
         <v>347.4</v>
@@ -58674,7 +58668,7 @@
         <v>528</v>
       </c>
       <c r="K1146" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1146" t="n">
         <v>347.3</v>
@@ -58776,7 +58770,7 @@
         <v>529</v>
       </c>
       <c r="K1148" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1148" t="n">
         <v>347.5</v>
@@ -58827,7 +58821,7 @@
         <v>530</v>
       </c>
       <c r="K1149" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L1149" t="n">
         <v>347.5</v>
@@ -58878,7 +58872,7 @@
         <v>530</v>
       </c>
       <c r="K1150" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1150" t="n">
         <v>347.5</v>
@@ -58929,7 +58923,7 @@
         <v>531</v>
       </c>
       <c r="K1151" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L1151" t="n">
         <v>347.3</v>
@@ -58980,7 +58974,7 @@
         <v>531</v>
       </c>
       <c r="K1152" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L1152" t="n">
         <v>347.1</v>
@@ -59031,7 +59025,7 @@
         <v>532</v>
       </c>
       <c r="K1153" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L1153" t="n">
         <v>346.8</v>
@@ -59082,7 +59076,7 @@
         <v>532</v>
       </c>
       <c r="K1154" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L1154" t="n">
         <v>346.5</v>
@@ -59133,7 +59127,7 @@
         <v>532</v>
       </c>
       <c r="K1155" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L1155" t="n">
         <v>346.3</v>
@@ -59184,7 +59178,7 @@
         <v>532</v>
       </c>
       <c r="K1156" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L1156" t="n">
         <v>346.1</v>
@@ -59235,7 +59229,7 @@
         <v>532</v>
       </c>
       <c r="K1157" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L1157" t="n">
         <v>345.9</v>
@@ -59286,7 +59280,7 @@
         <v>532</v>
       </c>
       <c r="K1158" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L1158" t="n">
         <v>345.6</v>
@@ -59337,7 +59331,7 @@
         <v>532</v>
       </c>
       <c r="K1159" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L1159" t="n">
         <v>345.4</v>
@@ -59388,7 +59382,7 @@
         <v>532</v>
       </c>
       <c r="K1160" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L1160" t="n">
         <v>345.2</v>
@@ -59439,7 +59433,7 @@
         <v>532</v>
       </c>
       <c r="K1161" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L1161" t="n">
         <v>345.1</v>
@@ -59489,9 +59483,7 @@
       <c r="J1162" t="n">
         <v>532</v>
       </c>
-      <c r="K1162" t="n">
-        <v>-60</v>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>345</v>
       </c>
@@ -59540,9 +59532,7 @@
       <c r="J1163" t="n">
         <v>532</v>
       </c>
-      <c r="K1163" t="n">
-        <v>-60</v>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>345</v>
       </c>
@@ -59591,9 +59581,7 @@
       <c r="J1164" t="n">
         <v>532</v>
       </c>
-      <c r="K1164" t="n">
-        <v>-60</v>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>345</v>
       </c>
@@ -59642,9 +59630,7 @@
       <c r="J1165" t="n">
         <v>532</v>
       </c>
-      <c r="K1165" t="n">
-        <v>-50</v>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>345</v>
       </c>
@@ -59693,9 +59679,7 @@
       <c r="J1166" t="n">
         <v>532</v>
       </c>
-      <c r="K1166" t="n">
-        <v>-50</v>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>345</v>
       </c>
@@ -59744,9 +59728,7 @@
       <c r="J1167" t="n">
         <v>532</v>
       </c>
-      <c r="K1167" t="n">
-        <v>-50</v>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>345</v>
       </c>
@@ -60255,7 +60237,7 @@
         <v>540</v>
       </c>
       <c r="K1177" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1177" t="n">
         <v>342.8</v>
@@ -60306,7 +60288,7 @@
         <v>540</v>
       </c>
       <c r="K1178" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L1178" t="n">
         <v>342.7</v>
@@ -60357,7 +60339,7 @@
         <v>540</v>
       </c>
       <c r="K1179" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L1179" t="n">
         <v>342.7</v>
@@ -60408,7 +60390,7 @@
         <v>540</v>
       </c>
       <c r="K1180" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L1180" t="n">
         <v>342.7</v>
@@ -60459,7 +60441,7 @@
         <v>541</v>
       </c>
       <c r="K1181" t="n">
-        <v>-11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L1181" t="n">
         <v>342.8</v>
@@ -60510,7 +60492,7 @@
         <v>542</v>
       </c>
       <c r="K1182" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1182" t="n">
         <v>343</v>
@@ -60561,7 +60543,7 @@
         <v>542</v>
       </c>
       <c r="K1183" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1183" t="n">
         <v>343</v>
@@ -60612,7 +60594,7 @@
         <v>542</v>
       </c>
       <c r="K1184" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1184" t="n">
         <v>343</v>
@@ -60663,7 +60645,7 @@
         <v>542</v>
       </c>
       <c r="K1185" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L1185" t="n">
         <v>343.1</v>
@@ -60714,7 +60696,7 @@
         <v>543</v>
       </c>
       <c r="K1186" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1186" t="n">
         <v>343.2</v>
@@ -60765,7 +60747,7 @@
         <v>544</v>
       </c>
       <c r="K1187" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L1187" t="n">
         <v>343.4</v>

--- a/BackTest/2019-10-18 BackTest XRP.xlsx
+++ b/BackTest/2019-10-18 BackTest XRP.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
@@ -13404,7 +13404,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
@@ -13439,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
@@ -40071,14 +40071,20 @@
         <v>351.05</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1134" t="n">
         <v>0</v>
       </c>
-      <c r="J1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>347</v>
+      </c>
       <c r="K1134" t="inlineStr"/>
-      <c r="L1134" t="inlineStr"/>
+      <c r="L1134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M1134" t="n">
         <v>1</v>
       </c>
@@ -40106,14 +40112,20 @@
         <v>350.95</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1135" t="n">
         <v>0</v>
       </c>
-      <c r="J1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>347</v>
+      </c>
       <c r="K1135" t="inlineStr"/>
-      <c r="L1135" t="inlineStr"/>
+      <c r="L1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1135" t="n">
         <v>1</v>
       </c>
@@ -40141,14 +40153,20 @@
         <v>350.8833333333333</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1136" t="n">
         <v>0</v>
       </c>
-      <c r="J1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>347</v>
+      </c>
       <c r="K1136" t="inlineStr"/>
-      <c r="L1136" t="inlineStr"/>
+      <c r="L1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1136" t="n">
         <v>1</v>
       </c>
@@ -40176,14 +40194,20 @@
         <v>350.7666666666667</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1137" t="n">
         <v>0</v>
       </c>
-      <c r="J1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>348</v>
+      </c>
       <c r="K1137" t="inlineStr"/>
-      <c r="L1137" t="inlineStr"/>
+      <c r="L1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1137" t="n">
         <v>1</v>
       </c>
@@ -40211,14 +40235,20 @@
         <v>350.6666666666667</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1138" t="n">
         <v>0</v>
       </c>
-      <c r="J1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>346</v>
+      </c>
       <c r="K1138" t="inlineStr"/>
-      <c r="L1138" t="inlineStr"/>
+      <c r="L1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1138" t="n">
         <v>1</v>
       </c>
@@ -40246,14 +40276,20 @@
         <v>350.5666666666667</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1139" t="n">
         <v>0</v>
       </c>
-      <c r="J1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>347</v>
+      </c>
       <c r="K1139" t="inlineStr"/>
-      <c r="L1139" t="inlineStr"/>
+      <c r="L1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1139" t="n">
         <v>1</v>
       </c>
@@ -40281,14 +40317,20 @@
         <v>350.4666666666666</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1140" t="n">
         <v>0</v>
       </c>
-      <c r="J1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>347</v>
+      </c>
       <c r="K1140" t="inlineStr"/>
-      <c r="L1140" t="inlineStr"/>
+      <c r="L1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1140" t="n">
         <v>1</v>
       </c>
@@ -40316,14 +40358,20 @@
         <v>350.3833333333333</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1141" t="n">
         <v>0</v>
       </c>
-      <c r="J1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>347</v>
+      </c>
       <c r="K1141" t="inlineStr"/>
-      <c r="L1141" t="inlineStr"/>
+      <c r="L1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1141" t="n">
         <v>1</v>
       </c>
@@ -40351,14 +40399,20 @@
         <v>350.3166666666667</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1142" t="n">
         <v>0</v>
       </c>
-      <c r="J1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>348</v>
+      </c>
       <c r="K1142" t="inlineStr"/>
-      <c r="L1142" t="inlineStr"/>
+      <c r="L1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1142" t="n">
         <v>1</v>
       </c>
@@ -40386,14 +40440,20 @@
         <v>350.2333333333333</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1143" t="n">
         <v>0</v>
       </c>
-      <c r="J1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>348</v>
+      </c>
       <c r="K1143" t="inlineStr"/>
-      <c r="L1143" t="inlineStr"/>
+      <c r="L1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1143" t="n">
         <v>1</v>
       </c>
@@ -40421,14 +40481,20 @@
         <v>350.1666666666667</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1144" t="n">
         <v>0</v>
       </c>
-      <c r="J1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>348</v>
+      </c>
       <c r="K1144" t="inlineStr"/>
-      <c r="L1144" t="inlineStr"/>
+      <c r="L1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1144" t="n">
         <v>1</v>
       </c>
@@ -40456,14 +40522,20 @@
         <v>350.0833333333333</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1145" t="n">
         <v>0</v>
       </c>
-      <c r="J1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>348</v>
+      </c>
       <c r="K1145" t="inlineStr"/>
-      <c r="L1145" t="inlineStr"/>
+      <c r="L1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1145" t="n">
         <v>1</v>
       </c>
@@ -40491,14 +40563,20 @@
         <v>349.9833333333333</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1146" t="n">
         <v>0</v>
       </c>
-      <c r="J1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>347</v>
+      </c>
       <c r="K1146" t="inlineStr"/>
-      <c r="L1146" t="inlineStr"/>
+      <c r="L1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1146" t="n">
         <v>1</v>
       </c>
@@ -40526,14 +40604,20 @@
         <v>349.8833333333333</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1147" t="n">
         <v>0</v>
       </c>
-      <c r="J1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>347</v>
+      </c>
       <c r="K1147" t="inlineStr"/>
-      <c r="L1147" t="inlineStr"/>
+      <c r="L1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1147" t="n">
         <v>1</v>
       </c>
@@ -40561,14 +40645,20 @@
         <v>349.8</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1148" t="n">
         <v>0</v>
       </c>
-      <c r="J1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>347</v>
+      </c>
       <c r="K1148" t="inlineStr"/>
-      <c r="L1148" t="inlineStr"/>
+      <c r="L1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1148" t="n">
         <v>1</v>
       </c>
@@ -40596,14 +40686,20 @@
         <v>349.7166666666666</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1149" t="n">
         <v>0</v>
       </c>
-      <c r="J1149" t="inlineStr"/>
+      <c r="J1149" t="n">
+        <v>348</v>
+      </c>
       <c r="K1149" t="inlineStr"/>
-      <c r="L1149" t="inlineStr"/>
+      <c r="L1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1149" t="n">
         <v>1</v>
       </c>
@@ -40631,14 +40727,20 @@
         <v>349.6333333333333</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1150" t="n">
         <v>0</v>
       </c>
-      <c r="J1150" t="inlineStr"/>
+      <c r="J1150" t="n">
+        <v>347</v>
+      </c>
       <c r="K1150" t="inlineStr"/>
-      <c r="L1150" t="inlineStr"/>
+      <c r="L1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1150" t="n">
         <v>1</v>
       </c>
@@ -40673,7 +40775,11 @@
       </c>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr"/>
-      <c r="L1151" t="inlineStr"/>
+      <c r="L1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1151" t="n">
         <v>1</v>
       </c>
@@ -40708,7 +40814,11 @@
       </c>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr"/>
-      <c r="L1152" t="inlineStr"/>
+      <c r="L1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1152" t="n">
         <v>1</v>
       </c>
@@ -40736,18 +40846,16 @@
         <v>349.3166666666667</v>
       </c>
       <c r="H1153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="n">
         <v>0</v>
       </c>
-      <c r="J1153" t="n">
-        <v>346</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M1153" t="n">
@@ -40777,14 +40885,12 @@
         <v>349.2166666666666</v>
       </c>
       <c r="H1154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="n">
         <v>0</v>
       </c>
-      <c r="J1154" t="n">
-        <v>345</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="inlineStr">
         <is>
@@ -40818,14 +40924,12 @@
         <v>349.1166666666667</v>
       </c>
       <c r="H1155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="n">
         <v>0</v>
       </c>
-      <c r="J1155" t="n">
-        <v>345</v>
-      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="inlineStr">
         <is>
@@ -40859,14 +40963,12 @@
         <v>349.0166666666667</v>
       </c>
       <c r="H1156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="n">
         <v>0</v>
       </c>
-      <c r="J1156" t="n">
-        <v>345</v>
-      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="inlineStr">
         <is>
@@ -40900,14 +41002,12 @@
         <v>348.9</v>
       </c>
       <c r="H1157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="n">
         <v>0</v>
       </c>
-      <c r="J1157" t="n">
-        <v>345</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="inlineStr">
         <is>
@@ -40941,14 +41041,12 @@
         <v>348.7833333333334</v>
       </c>
       <c r="H1158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="n">
         <v>0</v>
       </c>
-      <c r="J1158" t="n">
-        <v>344</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="inlineStr">
         <is>
@@ -40982,14 +41080,12 @@
         <v>348.6666666666667</v>
       </c>
       <c r="H1159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="n">
         <v>0</v>
       </c>
-      <c r="J1159" t="n">
-        <v>345</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="inlineStr">
         <is>
@@ -41029,7 +41125,7 @@
         <v>0</v>
       </c>
       <c r="J1160" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="inlineStr">
@@ -41234,7 +41330,7 @@
         <v>0</v>
       </c>
       <c r="J1165" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="inlineStr">
@@ -41269,14 +41365,12 @@
         <v>347.75</v>
       </c>
       <c r="H1166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="n">
         <v>0</v>
       </c>
-      <c r="J1166" t="n">
-        <v>345</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="inlineStr">
         <is>

--- a/BackTest/2019-10-18 BackTest XRP.xlsx
+++ b/BackTest/2019-10-18 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1424950.64414694</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1424950.64414694</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>339</v>
@@ -521,7 +521,7 @@
         <v>1421715.27344694</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>339</v>
@@ -562,7 +562,7 @@
         <v>1422700.52414694</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>338</v>
@@ -603,7 +603,7 @@
         <v>1422700.52414694</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>339</v>
@@ -644,7 +644,7 @@
         <v>1422700.52414694</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>339</v>
@@ -685,7 +685,7 @@
         <v>1175830.87364694</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>339</v>
@@ -726,7 +726,7 @@
         <v>1249996.08234694</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>338</v>
@@ -767,7 +767,7 @@
         <v>1249996.08234694</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>339</v>
@@ -808,9 +808,11 @@
         <v>1419419.43444694</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>339</v>
+      </c>
       <c r="J11" t="n">
         <v>339</v>
       </c>
@@ -847,7 +849,7 @@
         <v>1499688.60022875</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>340</v>
@@ -888,9 +890,11 @@
         <v>1438031.89762875</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>341</v>
+      </c>
       <c r="J13" t="n">
         <v>339</v>
       </c>
@@ -927,9 +931,11 @@
         <v>1438414.92762875</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>340</v>
+      </c>
       <c r="J14" t="n">
         <v>339</v>
       </c>
@@ -966,9 +972,11 @@
         <v>1975939.67004694</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>341</v>
+      </c>
       <c r="J15" t="n">
         <v>339</v>
       </c>
@@ -1005,9 +1013,11 @@
         <v>1922157.22124694</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>344</v>
+      </c>
       <c r="J16" t="n">
         <v>339</v>
       </c>
@@ -2175,7 +2185,7 @@
         <v>7474923.359004121</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2214,7 +2224,7 @@
         <v>7474923.359004121</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
@@ -2253,7 +2263,7 @@
         <v>7474923.359004121</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
@@ -2292,7 +2302,7 @@
         <v>7474923.359004121</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
@@ -2331,7 +2341,7 @@
         <v>7950039.713338601</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
@@ -2370,7 +2380,7 @@
         <v>7950039.713338601</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
@@ -2409,7 +2419,7 @@
         <v>7950039.713338601</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
@@ -2448,7 +2458,7 @@
         <v>7950039.713338601</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
@@ -2487,7 +2497,7 @@
         <v>7918837.359938601</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2526,7 +2536,7 @@
         <v>7918837.359938601</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
@@ -2565,7 +2575,7 @@
         <v>7918837.359938601</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
@@ -2604,7 +2614,7 @@
         <v>7857720.242938601</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
@@ -2643,7 +2653,7 @@
         <v>8280853.507138602</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
@@ -2682,7 +2692,7 @@
         <v>8187893.402038601</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
@@ -2838,7 +2848,7 @@
         <v>8458877.731657112</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -8064,7 +8074,7 @@
         <v>9917266.355614794</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
@@ -8072,11 +8082,11 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>1.036297935103245</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -8106,14 +8116,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>339</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8145,14 +8149,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>339</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8184,14 +8182,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>339</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8223,14 +8215,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>339</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8262,14 +8248,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>339</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8301,14 +8281,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>339</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8340,14 +8314,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>339</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8379,14 +8347,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>339</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8418,14 +8380,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>339</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8457,14 +8413,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>339</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8493,17 +8443,11 @@
         <v>10046803.21399898</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>339</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8532,17 +8476,11 @@
         <v>9884710.140898984</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>339</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8571,17 +8509,11 @@
         <v>9884710.140898984</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>339</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8613,14 +8545,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>339</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8652,14 +8578,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>339</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8691,14 +8611,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>339</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8730,14 +8644,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>339</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8769,14 +8677,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>339</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8805,17 +8707,11 @@
         <v>9884710.140898984</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>339</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8844,17 +8740,11 @@
         <v>9927714.393198984</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>339</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8883,17 +8773,11 @@
         <v>9927714.393198984</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>339</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8922,17 +8806,11 @@
         <v>9926182.564998984</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>339</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8961,17 +8839,11 @@
         <v>9991297.129446574</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>339</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9000,17 +8872,11 @@
         <v>9991065.955846574</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>339</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9039,17 +8905,11 @@
         <v>9991065.955846574</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>339</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9081,14 +8941,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>339</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9117,17 +8971,11 @@
         <v>9905045.425546573</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>339</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9156,17 +9004,11 @@
         <v>9959938.440246573</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>339</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9195,17 +9037,11 @@
         <v>9941320.097346572</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>339</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9237,14 +9073,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>339</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9276,14 +9106,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>339</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9315,14 +9139,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>339</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9354,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>339</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9393,14 +9205,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>339</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9432,14 +9238,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>339</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9471,14 +9271,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>339</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9510,14 +9304,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>339</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9549,14 +9337,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>339</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9585,17 +9367,11 @@
         <v>10139062.54917384</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>339</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9627,14 +9403,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>339</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9663,17 +9433,11 @@
         <v>10036595.43397384</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>339</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9702,17 +9466,11 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>339</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9741,17 +9499,11 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>339</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9780,17 +9532,11 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>339</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9819,17 +9565,11 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>339</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9858,17 +9598,11 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>339</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9897,19 +9631,13 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>339</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
-        <v>1.036297935103245</v>
+        <v>1</v>
       </c>
       <c r="M244" t="inlineStr"/>
     </row>
@@ -9936,7 +9664,7 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9969,7 +9697,7 @@
         <v>10063855.72877384</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10002,7 +9730,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10035,7 +9763,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10068,7 +9796,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10101,7 +9829,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10134,7 +9862,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10167,7 +9895,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10200,7 +9928,7 @@
         <v>9161512.233473841</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10233,7 +9961,7 @@
         <v>9161512.233473841</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10266,7 +9994,7 @@
         <v>9160867.217046572</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10299,7 +10027,7 @@
         <v>9160867.217046572</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10332,7 +10060,7 @@
         <v>9160867.217046572</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10365,7 +10093,7 @@
         <v>9160867.217046572</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10398,7 +10126,7 @@
         <v>9026199.141546572</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10431,7 +10159,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10464,7 +10192,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10497,7 +10225,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10530,7 +10258,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10563,7 +10291,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10596,7 +10324,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10629,7 +10357,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10662,7 +10390,7 @@
         <v>9066378.432046572</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10695,7 +10423,7 @@
         <v>9066436.038884172</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10728,7 +10456,7 @@
         <v>9066436.038884172</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -15909,7 +15637,7 @@
         <v>11307427.93225892</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15975,7 +15703,7 @@
         <v>13703431.87061551</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16008,7 +15736,7 @@
         <v>13703431.87061551</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16041,7 +15769,7 @@
         <v>13238070.95371551</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16074,7 +15802,7 @@
         <v>13494236.99621551</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16107,7 +15835,7 @@
         <v>13471974.20073842</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16140,7 +15868,7 @@
         <v>13471974.20073842</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16173,7 +15901,7 @@
         <v>13673596.98443842</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16206,7 +15934,7 @@
         <v>13625640.94763842</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16239,7 +15967,7 @@
         <v>13625640.94763842</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16272,7 +16000,7 @@
         <v>13625640.94763842</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16305,7 +16033,7 @@
         <v>13283184.48090705</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16338,7 +16066,7 @@
         <v>13311841.99080705</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16371,7 +16099,7 @@
         <v>13259403.57380705</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16404,7 +16132,7 @@
         <v>13259403.57380705</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16437,7 +16165,7 @@
         <v>13120741.49720705</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16470,7 +16198,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16503,7 +16231,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16536,7 +16264,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16569,7 +16297,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16602,7 +16330,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16635,7 +16363,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16668,7 +16396,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16701,7 +16429,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16734,7 +16462,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16767,7 +16495,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16800,7 +16528,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16833,7 +16561,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16866,7 +16594,7 @@
         <v>13662123.97701598</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17394,7 +17122,7 @@
         <v>13245492.82153516</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17427,7 +17155,7 @@
         <v>13220799.59183516</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17460,7 +17188,7 @@
         <v>13220800.59183516</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17493,7 +17221,7 @@
         <v>13220800.59183516</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17526,7 +17254,7 @@
         <v>13220800.59183516</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17559,7 +17287,7 @@
         <v>13220800.59183516</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17592,7 +17320,7 @@
         <v>13433465.08232479</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17691,7 +17419,7 @@
         <v>13247844.56933042</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18186,7 +17914,7 @@
         <v>13770348.7350378</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18219,7 +17947,7 @@
         <v>13662320.0848378</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18318,7 +18046,7 @@
         <v>13609596.1003378</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18714,7 +18442,7 @@
         <v>13698784.7839378</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18780,7 +18508,7 @@
         <v>13698784.7839378</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18813,7 +18541,7 @@
         <v>13698801.38409914</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19407,7 +19135,7 @@
         <v>12609927.29389914</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19440,7 +19168,7 @@
         <v>12731785.31979914</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19473,7 +19201,7 @@
         <v>12731785.31979914</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19506,7 +19234,7 @@
         <v>12783883.63289914</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20793,7 +20521,7 @@
         <v>12368867.38829914</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20826,7 +20554,7 @@
         <v>12314159.48599914</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20859,7 +20587,7 @@
         <v>12315927.96469914</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20892,7 +20620,7 @@
         <v>12315927.96469914</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20925,7 +20653,7 @@
         <v>12315927.96469914</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20958,7 +20686,7 @@
         <v>12315927.96469914</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20991,7 +20719,7 @@
         <v>12312817.27569914</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21024,7 +20752,7 @@
         <v>12312817.27569914</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21057,7 +20785,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21090,7 +20818,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21123,7 +20851,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21156,7 +20884,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21189,7 +20917,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21651,7 +21379,7 @@
         <v>12319541.13343496</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21684,7 +21412,7 @@
         <v>12299541.13343496</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21717,7 +21445,7 @@
         <v>12299541.13343496</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21750,7 +21478,7 @@
         <v>12300812.31983496</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21816,7 +21544,7 @@
         <v>12300590.31983496</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21849,7 +21577,7 @@
         <v>12300590.31983496</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21882,7 +21610,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21915,7 +21643,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21948,7 +21676,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21981,7 +21709,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22014,7 +21742,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22047,7 +21775,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22080,7 +21808,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22113,7 +21841,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22146,7 +21874,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22179,7 +21907,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22212,7 +21940,7 @@
         <v>12301490.34523495</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22245,7 +21973,7 @@
         <v>12302009.07313496</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22674,7 +22402,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22707,7 +22435,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22740,7 +22468,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22773,7 +22501,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22806,7 +22534,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22839,7 +22567,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22872,7 +22600,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22938,7 +22666,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22971,7 +22699,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23004,7 +22732,7 @@
         <v>12313461.04873496</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23037,7 +22765,7 @@
         <v>12313461.04873496</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23070,7 +22798,7 @@
         <v>12313461.04873496</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23103,7 +22831,7 @@
         <v>12313461.04873496</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23136,7 +22864,7 @@
         <v>12313441.74883495</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23169,7 +22897,7 @@
         <v>12315036.74883495</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23202,7 +22930,7 @@
         <v>12315036.74883495</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23235,7 +22963,7 @@
         <v>12314437.74883495</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23268,7 +22996,7 @@
         <v>12353173.96484738</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23301,7 +23029,7 @@
         <v>12353173.96484738</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23334,7 +23062,7 @@
         <v>12353173.96484738</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23367,7 +23095,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23400,7 +23128,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23433,7 +23161,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23466,7 +23194,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23499,7 +23227,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23532,7 +23260,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23565,7 +23293,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23598,7 +23326,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23631,7 +23359,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23664,7 +23392,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23697,7 +23425,7 @@
         <v>12347799.90814738</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23994,7 +23722,7 @@
         <v>12533611.30692485</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24027,7 +23755,7 @@
         <v>12514495.30692485</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24093,7 +23821,7 @@
         <v>12471624.37499677</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24126,7 +23854,7 @@
         <v>12471624.37499677</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24159,7 +23887,7 @@
         <v>12471624.37499677</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24192,7 +23920,7 @@
         <v>12467470.98919677</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24225,7 +23953,7 @@
         <v>12467470.98919677</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24258,7 +23986,7 @@
         <v>12467470.98919677</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24291,7 +24019,7 @@
         <v>12467175.50339677</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24324,7 +24052,7 @@
         <v>12467175.50339677</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24357,7 +24085,7 @@
         <v>12467175.50339677</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24390,7 +24118,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24423,7 +24151,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24456,7 +24184,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24489,7 +24217,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24522,7 +24250,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24555,7 +24283,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24588,7 +24316,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24621,7 +24349,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24654,7 +24382,7 @@
         <v>12477318.09086795</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24687,7 +24415,7 @@
         <v>12477315.54856795</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24720,7 +24448,7 @@
         <v>12477315.54856795</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24753,7 +24481,7 @@
         <v>12608670.69506795</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24786,7 +24514,7 @@
         <v>12608670.69506795</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25314,7 +25042,7 @@
         <v>12624950.74516795</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25347,7 +25075,7 @@
         <v>12624950.74516795</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25380,7 +25108,7 @@
         <v>12624950.74516795</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25413,7 +25141,7 @@
         <v>12659840.66264964</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25446,7 +25174,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25479,7 +25207,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25512,7 +25240,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25545,7 +25273,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25578,7 +25306,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25611,7 +25339,7 @@
         <v>12644318.72554964</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25644,7 +25372,7 @@
         <v>12667031.93114964</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25677,7 +25405,7 @@
         <v>12656227.12364964</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26106,7 +25834,7 @@
         <v>12698939.34087675</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26139,7 +25867,7 @@
         <v>12684631.44087675</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26172,7 +25900,7 @@
         <v>12685888.22017675</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26271,7 +25999,7 @@
         <v>12650344.9136355</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26304,7 +26032,7 @@
         <v>12650344.9136355</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26337,7 +26065,7 @@
         <v>12649994.0362355</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26370,7 +26098,7 @@
         <v>12649994.0362355</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26403,7 +26131,7 @@
         <v>12650163.12662307</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26436,7 +26164,7 @@
         <v>12650163.12662307</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26469,7 +26197,7 @@
         <v>12649652.53892307</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26601,7 +26329,7 @@
         <v>12653927.12261064</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26997,7 +26725,7 @@
         <v>12648556.54021064</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27360,7 +27088,7 @@
         <v>12648090.86261064</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27393,7 +27121,7 @@
         <v>12648090.86261064</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27426,7 +27154,7 @@
         <v>12659059.13661064</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27756,7 +27484,7 @@
         <v>12807625.14479935</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27855,7 +27583,7 @@
         <v>12693849.87499935</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27888,7 +27616,7 @@
         <v>12780861.44829935</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27921,7 +27649,7 @@
         <v>12807165.18689935</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27954,7 +27682,7 @@
         <v>12807165.18689935</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27987,7 +27715,7 @@
         <v>12636715.75229935</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28020,7 +27748,7 @@
         <v>12677992.18739935</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28053,7 +27781,7 @@
         <v>12677992.18739935</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28086,7 +27814,7 @@
         <v>12677992.18739935</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28119,7 +27847,7 @@
         <v>12677992.18739935</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28152,7 +27880,7 @@
         <v>12677992.18739935</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28185,7 +27913,7 @@
         <v>12866036.50377862</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28218,7 +27946,7 @@
         <v>12795453.30107862</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28251,7 +27979,7 @@
         <v>12795603.30107862</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28284,7 +28012,7 @@
         <v>12661901.99687862</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28317,7 +28045,7 @@
         <v>12661901.99687862</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28350,7 +28078,7 @@
         <v>12661901.99687862</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28383,7 +28111,7 @@
         <v>12674767.63037862</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28416,7 +28144,7 @@
         <v>12610362.63037862</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28449,7 +28177,7 @@
         <v>12641632.41707862</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28482,7 +28210,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28515,7 +28243,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28548,7 +28276,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28581,7 +28309,7 @@
         <v>12707267.85285231</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28614,7 +28342,7 @@
         <v>12706126.79685231</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28647,7 +28375,7 @@
         <v>12706447.79685231</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28680,7 +28408,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28713,7 +28441,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28746,7 +28474,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28779,7 +28507,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28812,7 +28540,7 @@
         <v>12592437.26844922</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28845,7 +28573,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28878,7 +28606,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28944,7 +28672,7 @@
         <v>13046577.883797</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28977,7 +28705,7 @@
         <v>12961973.301197</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29010,7 +28738,7 @@
         <v>12961973.301197</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29043,7 +28771,7 @@
         <v>12961973.301197</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29076,7 +28804,7 @@
         <v>12981495.99486106</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29109,7 +28837,7 @@
         <v>12848681.35326106</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29142,7 +28870,7 @@
         <v>12957320.16470117</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29175,7 +28903,7 @@
         <v>12891461.40860117</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29208,7 +28936,7 @@
         <v>12891573.308263</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29241,7 +28969,7 @@
         <v>12891573.308263</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29274,7 +29002,7 @@
         <v>12891573.308263</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29307,7 +29035,7 @@
         <v>12674241.727363</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29340,7 +29068,7 @@
         <v>12547799.421863</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29373,7 +29101,7 @@
         <v>12520744.610763</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29406,7 +29134,7 @@
         <v>12597881.237263</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29439,7 +29167,7 @@
         <v>12634312.786763</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29604,7 +29332,7 @@
         <v>12575801.818563</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29670,7 +29398,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29703,7 +29431,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29736,7 +29464,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29769,7 +29497,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29802,7 +29530,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30462,7 +30190,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30594,7 +30322,7 @@
         <v>12348509.61739708</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30726,7 +30454,7 @@
         <v>12311215.25189708</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30825,7 +30553,7 @@
         <v>12274666.51889708</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30858,7 +30586,7 @@
         <v>12274666.51889708</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30891,7 +30619,7 @@
         <v>12274666.51889708</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30924,7 +30652,7 @@
         <v>12422860.79152966</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30957,7 +30685,7 @@
         <v>12422860.79152966</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30990,7 +30718,7 @@
         <v>12422866.14162966</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31023,7 +30751,7 @@
         <v>12414724.26922966</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31617,7 +31345,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31650,7 +31378,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31683,7 +31411,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31716,7 +31444,7 @@
         <v>12400375.09279906</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31749,7 +31477,7 @@
         <v>12401155.49049906</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31782,7 +31510,7 @@
         <v>12401155.49049906</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31815,7 +31543,7 @@
         <v>12399334.38999906</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31848,7 +31576,7 @@
         <v>12399435.4299195</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31881,7 +31609,7 @@
         <v>12399435.4299195</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31914,7 +31642,7 @@
         <v>12399038.5531195</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31947,7 +31675,7 @@
         <v>12580561.83513772</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31980,7 +31708,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32013,7 +31741,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32046,7 +31774,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32079,7 +31807,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32178,7 +31906,7 @@
         <v>12426597.95643771</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32706,7 +32434,7 @@
         <v>12639011.6468703</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32739,7 +32467,7 @@
         <v>12640971.9806703</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32772,7 +32500,7 @@
         <v>12640971.9806703</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32805,7 +32533,7 @@
         <v>12640971.9806703</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32838,7 +32566,7 @@
         <v>12637943.0436703</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32871,7 +32599,7 @@
         <v>12637943.0436703</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32904,7 +32632,7 @@
         <v>12637943.0436703</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32937,7 +32665,7 @@
         <v>12637943.0436703</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32970,7 +32698,7 @@
         <v>12663445.10559565</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33003,7 +32731,7 @@
         <v>12611182.17059565</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33036,7 +32764,7 @@
         <v>12611182.17059565</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33069,7 +32797,7 @@
         <v>12635693.78699565</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33102,7 +32830,7 @@
         <v>12634273.37049565</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33135,7 +32863,7 @@
         <v>12634273.37049565</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33168,7 +32896,7 @@
         <v>12754015.9517886</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33201,7 +32929,7 @@
         <v>12754015.9517886</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33234,7 +32962,7 @@
         <v>12635665.2045242</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33300,7 +33028,7 @@
         <v>12674767.66666543</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33663,7 +33391,7 @@
         <v>12510294.10522363</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33696,7 +33424,7 @@
         <v>12511667.85094898</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33729,7 +33457,7 @@
         <v>12510167.50884898</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33762,7 +33490,7 @@
         <v>12633695.15504898</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33795,7 +33523,7 @@
         <v>12649779.33634898</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33828,7 +33556,7 @@
         <v>12604416.89904898</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33861,7 +33589,7 @@
         <v>12483755.65554898</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33894,7 +33622,7 @@
         <v>12486537.42054898</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33927,7 +33655,7 @@
         <v>12486537.42054898</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33960,7 +33688,7 @@
         <v>12424980.8728349</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33993,7 +33721,7 @@
         <v>12424980.8728349</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34026,7 +33754,7 @@
         <v>12433778.6488349</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34059,7 +33787,7 @@
         <v>12433778.6488349</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34092,7 +33820,7 @@
         <v>12265457.0883349</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34125,7 +33853,7 @@
         <v>12322392.61302082</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34158,7 +33886,7 @@
         <v>12322392.61302082</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34191,7 +33919,7 @@
         <v>12322392.61302082</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34224,7 +33952,7 @@
         <v>12322392.61302082</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34257,7 +33985,7 @@
         <v>12328938.64012082</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34290,7 +34018,7 @@
         <v>12328897.79752082</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34422,7 +34150,7 @@
         <v>12234502.86712082</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34488,7 +34216,7 @@
         <v>12234502.86712082</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34521,7 +34249,7 @@
         <v>12234502.86712082</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34554,7 +34282,7 @@
         <v>12234502.86712082</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34587,7 +34315,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34620,7 +34348,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34686,7 +34414,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34719,7 +34447,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34752,7 +34480,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34785,7 +34513,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34818,7 +34546,7 @@
         <v>12214162.96602082</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34851,7 +34579,7 @@
         <v>12214162.96602082</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34884,7 +34612,7 @@
         <v>12276687.19772082</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34917,7 +34645,7 @@
         <v>12276687.19772082</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34950,7 +34678,7 @@
         <v>12276687.19772082</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34983,7 +34711,7 @@
         <v>12228459.15562082</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35016,7 +34744,7 @@
         <v>12228459.15562082</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35049,7 +34777,7 @@
         <v>12228459.15562082</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35082,7 +34810,7 @@
         <v>12239315.53332082</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35115,7 +34843,7 @@
         <v>12239315.53332082</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35148,7 +34876,7 @@
         <v>12239315.53332082</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35478,7 +35206,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35511,7 +35239,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35544,7 +35272,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35577,7 +35305,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35610,7 +35338,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35643,7 +35371,7 @@
         <v>12188372.58308709</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35676,7 +35404,7 @@
         <v>12387250.67278709</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35709,7 +35437,7 @@
         <v>12454797.68928709</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35742,7 +35470,7 @@
         <v>12451724.44298709</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35775,7 +35503,7 @@
         <v>12528984.59738709</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35808,7 +35536,7 @@
         <v>12528984.59738709</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35841,7 +35569,7 @@
         <v>12525004.16088709</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35874,7 +35602,7 @@
         <v>12535526.05581372</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35907,7 +35635,7 @@
         <v>12534875.14861372</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36039,7 +35767,7 @@
         <v>12528106.51671033</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36105,7 +35833,7 @@
         <v>12528106.51671033</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36402,7 +36130,7 @@
         <v>3944574.685509872</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36435,7 +36163,7 @@
         <v>3944574.685509872</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36468,7 +36196,7 @@
         <v>3944574.685509872</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36501,7 +36229,7 @@
         <v>4009935.581447262</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36534,7 +36262,7 @@
         <v>3951976.880847262</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36567,7 +36295,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36600,7 +36328,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36633,7 +36361,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36666,7 +36394,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36699,7 +36427,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36732,7 +36460,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36765,7 +36493,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36798,7 +36526,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36831,7 +36559,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36864,7 +36592,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36897,7 +36625,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -36930,7 +36658,7 @@
         <v>4071694.380647262</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36963,7 +36691,7 @@
         <v>3942128.126091432</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36996,7 +36724,7 @@
         <v>3942128.126091432</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37062,7 +36790,7 @@
         <v>3942128.126091432</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37095,7 +36823,7 @@
         <v>3953500.965918702</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -42408,11 +42136,17 @@
         <v>366111.2025141011</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>343</v>
+      </c>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42441,11 +42175,17 @@
         <v>366111.2025141011</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>343</v>
+      </c>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42474,11 +42214,17 @@
         <v>-719263.3623858991</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>343</v>
+      </c>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42507,11 +42253,17 @@
         <v>-47980.83598589909</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>341</v>
+      </c>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42540,11 +42292,17 @@
         <v>-47980.83598589909</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>343</v>
+      </c>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42573,11 +42331,17 @@
         <v>-84551.31628589908</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>343</v>
+      </c>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42606,17 +42370,23 @@
         <v>320394.0737141009</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>342</v>
+      </c>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
       <c r="M1235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest XRP.xlsx
+++ b/BackTest/2019-10-18 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>1422700.52414694</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>339</v>
       </c>
@@ -644,11 +642,9 @@
         <v>1422700.52414694</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>339</v>
       </c>
@@ -808,11 +804,9 @@
         <v>1419419.43444694</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>339</v>
       </c>
@@ -849,11 +843,9 @@
         <v>1499688.60022875</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>339</v>
       </c>
@@ -890,11 +882,9 @@
         <v>1438031.89762875</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>339</v>
       </c>
@@ -931,11 +921,9 @@
         <v>1438414.92762875</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>339</v>
       </c>
@@ -972,11 +960,9 @@
         <v>1975939.67004694</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>339</v>
       </c>
@@ -1013,11 +999,9 @@
         <v>1922157.22124694</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>339</v>
       </c>
@@ -1171,7 +1155,7 @@
         <v>5246364.543069281</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
@@ -1179,11 +1163,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>1.024498525073746</v>
       </c>
       <c r="M20" t="inlineStr"/>
     </row>
@@ -1210,17 +1194,11 @@
         <v>5246364.543069281</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>339</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1249,17 +1227,11 @@
         <v>5931362.4476407</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>339</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1288,17 +1260,11 @@
         <v>5754996.19655297</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>339</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1327,17 +1293,11 @@
         <v>5754996.19655297</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>339</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1366,17 +1326,11 @@
         <v>5587573.840963581</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>339</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1405,17 +1359,11 @@
         <v>5618049.817752111</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>339</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1444,17 +1392,11 @@
         <v>5618049.817752111</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>339</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1483,17 +1425,11 @@
         <v>5618049.817752111</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>339</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1522,17 +1458,11 @@
         <v>5830030.838566391</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>339</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1561,17 +1491,11 @@
         <v>8298442.594607301</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>339</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1603,14 +1527,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>339</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1642,14 +1560,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>339</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1681,14 +1593,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>339</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1720,14 +1626,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>339</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1759,14 +1659,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>339</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1798,14 +1692,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>339</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1837,14 +1725,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>339</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1876,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>339</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1915,14 +1791,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>339</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1954,14 +1824,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>339</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1993,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>339</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2032,14 +1890,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>339</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2071,14 +1923,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>339</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2107,17 +1953,11 @@
         <v>7382207.739118941</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>339</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2146,17 +1986,11 @@
         <v>7494683.116404121</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>339</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2185,17 +2019,11 @@
         <v>7474923.359004121</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>339</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2227,14 +2055,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>339</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2266,14 +2088,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>339</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2305,14 +2121,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>339</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2344,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>339</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2383,14 +2187,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>339</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2422,14 +2220,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>339</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2461,14 +2253,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>339</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2497,17 +2283,11 @@
         <v>7918837.359938601</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>339</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2539,14 +2319,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>339</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2578,14 +2352,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>339</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2617,14 +2385,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>339</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2418,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>339</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2451,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>339</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2734,14 +2484,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>339</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2773,14 +2517,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>339</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2809,17 +2547,11 @@
         <v>8371720.840457112</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>339</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2851,14 +2583,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>339</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2887,17 +2613,11 @@
         <v>8380676.063484402</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>339</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2929,14 +2649,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>339</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2682,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>339</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>339</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +2748,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>339</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +2781,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>339</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3124,14 +2814,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>339</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3163,14 +2847,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>339</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3202,14 +2880,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>339</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +2913,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>339</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3280,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>339</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +2979,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>339</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3358,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>339</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3397,14 +3045,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>339</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3436,14 +3078,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>339</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3475,14 +3111,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>339</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3514,14 +3144,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>339</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3553,14 +3177,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>339</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3592,14 +3210,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>339</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3631,14 +3243,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>339</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3670,14 +3276,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>339</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3709,14 +3309,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>339</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3748,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>339</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3787,14 +3375,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>339</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3826,14 +3408,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>339</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3865,14 +3441,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>339</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3904,14 +3474,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>339</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3943,14 +3507,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>339</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3982,14 +3540,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>339</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +3573,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>339</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4060,14 +3606,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>339</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4099,14 +3639,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>339</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +3672,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>339</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4177,14 +3705,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>339</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4216,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>339</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4255,14 +3771,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>339</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4294,14 +3804,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>339</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4333,14 +3837,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>339</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4372,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>339</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4411,14 +3903,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>339</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4450,14 +3936,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>339</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4489,14 +3969,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>339</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4528,14 +4002,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>339</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4567,14 +4035,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>339</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4606,14 +4068,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>339</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4645,14 +4101,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>339</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4684,14 +4134,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>339</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4723,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>339</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4762,14 +4200,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>339</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4801,14 +4233,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>339</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4840,14 +4266,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>339</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4879,14 +4299,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>339</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4918,14 +4332,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>339</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4957,14 +4365,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>339</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4996,14 +4398,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>339</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5035,14 +4431,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>339</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5074,14 +4464,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>339</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5113,14 +4497,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>339</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5152,14 +4530,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>339</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5191,14 +4563,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>339</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5230,14 +4596,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>339</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5269,14 +4629,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>339</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5308,14 +4662,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>339</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5347,14 +4695,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>339</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +4728,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>339</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5425,14 +4761,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>339</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5464,14 +4794,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>339</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5503,14 +4827,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>339</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5542,14 +4860,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>339</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5581,14 +4893,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>339</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5620,14 +4926,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>339</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5659,14 +4959,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>339</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5698,14 +4992,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>339</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5737,14 +5025,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>339</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5776,14 +5058,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>339</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5815,14 +5091,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>339</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5854,14 +5124,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>339</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5893,14 +5157,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>339</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5932,14 +5190,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>339</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5971,14 +5223,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>339</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6010,14 +5256,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>339</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6049,14 +5289,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>339</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6088,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>339</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6127,14 +5355,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>339</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6166,14 +5388,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>339</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6205,14 +5421,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>339</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6244,14 +5454,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>339</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6283,14 +5487,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>339</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6322,14 +5520,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>339</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6361,14 +5553,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>339</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6400,14 +5586,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>339</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6439,14 +5619,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>339</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6478,14 +5652,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>339</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6517,14 +5685,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>339</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6556,14 +5718,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>339</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6595,14 +5751,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>339</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6634,14 +5784,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>339</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6673,14 +5817,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>339</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6712,14 +5850,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>339</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6751,14 +5883,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>339</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6790,14 +5916,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>339</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6829,14 +5949,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>339</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6868,14 +5982,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>339</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6907,14 +6015,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>339</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6946,14 +6048,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>339</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6985,14 +6081,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>339</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7024,14 +6114,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>339</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7063,14 +6147,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>339</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7102,14 +6180,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>339</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7141,14 +6213,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>339</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7180,14 +6246,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>339</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7219,14 +6279,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>339</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7258,14 +6312,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>339</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7297,14 +6345,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>339</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7336,14 +6378,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>339</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7375,14 +6411,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>339</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7414,14 +6444,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>339</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7453,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>339</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7492,14 +6510,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>339</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7531,14 +6543,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>339</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7570,14 +6576,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>339</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7609,14 +6609,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>339</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7648,14 +6642,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>339</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7687,14 +6675,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>339</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7726,14 +6708,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>339</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7765,14 +6741,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>339</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7804,14 +6774,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>339</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7843,14 +6807,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>339</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7882,14 +6840,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>339</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7921,14 +6873,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>339</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7960,14 +6906,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>339</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7999,14 +6939,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>339</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8038,14 +6972,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>339</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8074,19 +7002,13 @@
         <v>9917266.355614794</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>339</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>1.036297935103245</v>
+        <v>1</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -8443,7 +7365,7 @@
         <v>10046803.21399898</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8476,7 +7398,7 @@
         <v>9884710.140898984</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8509,7 +7431,7 @@
         <v>9884710.140898984</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8707,7 +7629,7 @@
         <v>9884710.140898984</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8740,7 +7662,7 @@
         <v>9927714.393198984</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8773,7 +7695,7 @@
         <v>9927714.393198984</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8806,7 +7728,7 @@
         <v>9926182.564998984</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8839,7 +7761,7 @@
         <v>9991297.129446574</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8872,7 +7794,7 @@
         <v>9991065.955846574</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8905,7 +7827,7 @@
         <v>9991065.955846574</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8971,7 +7893,7 @@
         <v>9905045.425546573</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9004,7 +7926,7 @@
         <v>9959938.440246573</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9037,7 +7959,7 @@
         <v>9941320.097346572</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9367,7 +8289,7 @@
         <v>10139062.54917384</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9433,7 +8355,7 @@
         <v>10036595.43397384</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9466,7 +8388,7 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9499,7 +8421,7 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9532,7 +8454,7 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9565,7 +8487,7 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9598,7 +8520,7 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9631,7 +8553,7 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9664,7 +8586,7 @@
         <v>10046147.88527384</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9697,7 +8619,7 @@
         <v>10063855.72877384</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9730,7 +8652,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9763,7 +8685,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9796,7 +8718,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9829,7 +8751,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9862,7 +8784,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9895,7 +8817,7 @@
         <v>9432229.915473841</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9928,7 +8850,7 @@
         <v>9161512.233473841</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9961,7 +8883,7 @@
         <v>9161512.233473841</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9994,7 +8916,7 @@
         <v>9160867.217046572</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10027,7 +8949,7 @@
         <v>9160867.217046572</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10060,7 +8982,7 @@
         <v>9160867.217046572</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10093,7 +9015,7 @@
         <v>9160867.217046572</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10126,7 +9048,7 @@
         <v>9026199.141546572</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10159,7 +9081,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10192,7 +9114,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10225,7 +9147,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10258,7 +9180,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10291,7 +9213,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10324,7 +9246,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10357,7 +9279,7 @@
         <v>9068149.191246571</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10390,7 +9312,7 @@
         <v>9066378.432046572</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10423,7 +9345,7 @@
         <v>9066436.038884172</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10456,7 +9378,7 @@
         <v>9066436.038884172</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -15736,7 +14658,7 @@
         <v>13703431.87061551</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15769,7 +14691,7 @@
         <v>13238070.95371551</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16033,7 +14955,7 @@
         <v>13283184.48090705</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16066,7 +14988,7 @@
         <v>13311841.99080705</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16099,7 +15021,7 @@
         <v>13259403.57380705</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16132,7 +15054,7 @@
         <v>13259403.57380705</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16165,7 +15087,7 @@
         <v>13120741.49720705</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16198,7 +15120,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16231,7 +15153,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16264,7 +15186,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16297,7 +15219,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16330,7 +15252,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16363,7 +15285,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16396,7 +15318,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16429,7 +15351,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16462,7 +15384,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16495,7 +15417,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16528,7 +15450,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16561,7 +15483,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16594,7 +15516,7 @@
         <v>13662123.97701598</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17122,7 +16044,7 @@
         <v>13245492.82153516</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17155,7 +16077,7 @@
         <v>13220799.59183516</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17188,7 +16110,7 @@
         <v>13220800.59183516</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17221,7 +16143,7 @@
         <v>13220800.59183516</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17254,7 +16176,7 @@
         <v>13220800.59183516</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17287,7 +16209,7 @@
         <v>13220800.59183516</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17320,7 +16242,7 @@
         <v>13433465.08232479</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17419,7 +16341,7 @@
         <v>13247844.56933042</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18442,7 +17364,7 @@
         <v>13698784.7839378</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18508,7 +17430,7 @@
         <v>13698784.7839378</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18541,7 +17463,7 @@
         <v>13698801.38409914</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19135,7 +18057,7 @@
         <v>12609927.29389914</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19168,7 +18090,7 @@
         <v>12731785.31979914</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19201,7 +18123,7 @@
         <v>12731785.31979914</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19234,7 +18156,7 @@
         <v>12783883.63289914</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20521,7 +19443,7 @@
         <v>12368867.38829914</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20554,7 +19476,7 @@
         <v>12314159.48599914</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20587,7 +19509,7 @@
         <v>12315927.96469914</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20620,7 +19542,7 @@
         <v>12315927.96469914</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20653,7 +19575,7 @@
         <v>12315927.96469914</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20686,7 +19608,7 @@
         <v>12315927.96469914</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20719,7 +19641,7 @@
         <v>12312817.27569914</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20752,7 +19674,7 @@
         <v>12312817.27569914</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20785,7 +19707,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20818,7 +19740,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20851,7 +19773,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20884,7 +19806,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20917,7 +19839,7 @@
         <v>12312818.27569914</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21544,7 +20466,7 @@
         <v>12300590.31983496</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21577,7 +20499,7 @@
         <v>12300590.31983496</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21610,7 +20532,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21643,7 +20565,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21676,7 +20598,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21709,7 +20631,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21742,7 +20664,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21775,7 +20697,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21808,7 +20730,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21841,7 +20763,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21874,7 +20796,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21907,7 +20829,7 @@
         <v>12301500.46383495</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21940,7 +20862,7 @@
         <v>12301490.34523495</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21973,7 +20895,7 @@
         <v>12302009.07313496</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22666,7 +21588,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22699,7 +21621,7 @@
         <v>12313946.95983496</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22864,7 +21786,7 @@
         <v>12313441.74883495</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22897,7 +21819,7 @@
         <v>12315036.74883495</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22930,7 +21852,7 @@
         <v>12315036.74883495</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22963,7 +21885,7 @@
         <v>12314437.74883495</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22996,7 +21918,7 @@
         <v>12353173.96484738</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23029,7 +21951,7 @@
         <v>12353173.96484738</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23062,7 +21984,7 @@
         <v>12353173.96484738</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23095,7 +22017,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23128,7 +22050,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23161,7 +22083,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23194,7 +22116,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23227,7 +22149,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23260,7 +22182,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23293,7 +22215,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23326,7 +22248,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23359,7 +22281,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23392,7 +22314,7 @@
         <v>12347518.21804738</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23425,7 +22347,7 @@
         <v>12347799.90814738</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23722,7 +22644,7 @@
         <v>12533611.30692485</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23755,7 +22677,7 @@
         <v>12514495.30692485</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23953,7 +22875,7 @@
         <v>12467470.98919677</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24019,7 +22941,7 @@
         <v>12467175.50339677</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24052,7 +22974,7 @@
         <v>12467175.50339677</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24085,7 +23007,7 @@
         <v>12467175.50339677</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24118,7 +23040,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24151,7 +23073,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24184,7 +23106,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24217,7 +23139,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24250,7 +23172,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24283,7 +23205,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24316,7 +23238,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24349,7 +23271,7 @@
         <v>12475650.07966795</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24382,7 +23304,7 @@
         <v>12477318.09086795</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24415,7 +23337,7 @@
         <v>12477315.54856795</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24448,7 +23370,7 @@
         <v>12477315.54856795</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24481,7 +23403,7 @@
         <v>12608670.69506795</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24514,7 +23436,7 @@
         <v>12608670.69506795</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25042,7 +23964,7 @@
         <v>12624950.74516795</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25075,7 +23997,7 @@
         <v>12624950.74516795</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25108,7 +24030,7 @@
         <v>12624950.74516795</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25141,7 +24063,7 @@
         <v>12659840.66264964</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25174,7 +24096,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25207,7 +24129,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25240,7 +24162,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25273,7 +24195,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25306,7 +24228,7 @@
         <v>12657015.80394964</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25339,7 +24261,7 @@
         <v>12644318.72554964</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25372,7 +24294,7 @@
         <v>12667031.93114964</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25405,7 +24327,7 @@
         <v>12656227.12364964</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25834,7 +24756,7 @@
         <v>12698939.34087675</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25867,7 +24789,7 @@
         <v>12684631.44087675</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25900,7 +24822,7 @@
         <v>12685888.22017675</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25999,7 +24921,7 @@
         <v>12650344.9136355</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26032,7 +24954,7 @@
         <v>12650344.9136355</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26065,7 +24987,7 @@
         <v>12649994.0362355</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26098,7 +25020,7 @@
         <v>12649994.0362355</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26131,7 +25053,7 @@
         <v>12650163.12662307</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26164,7 +25086,7 @@
         <v>12650163.12662307</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26197,7 +25119,7 @@
         <v>12649652.53892307</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26329,7 +25251,7 @@
         <v>12653927.12261064</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26725,7 +25647,7 @@
         <v>12648556.54021064</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27088,7 +26010,7 @@
         <v>12648090.86261064</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27121,7 +26043,7 @@
         <v>12648090.86261064</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27154,7 +26076,7 @@
         <v>12659059.13661064</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28078,7 +27000,7 @@
         <v>12661901.99687862</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28111,7 +27033,7 @@
         <v>12674767.63037862</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28144,7 +27066,7 @@
         <v>12610362.63037862</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28177,7 +27099,7 @@
         <v>12641632.41707862</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28210,7 +27132,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28243,7 +27165,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28276,7 +27198,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28309,7 +27231,7 @@
         <v>12707267.85285231</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28342,7 +27264,7 @@
         <v>12706126.79685231</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28375,7 +27297,7 @@
         <v>12706447.79685231</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28408,7 +27330,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28441,7 +27363,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28474,7 +27396,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28507,7 +27429,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28540,7 +27462,7 @@
         <v>12592437.26844922</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28573,7 +27495,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28606,7 +27528,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28672,7 +27594,7 @@
         <v>13046577.883797</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30322,7 +29244,7 @@
         <v>12348509.61739708</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30454,7 +29376,7 @@
         <v>12311215.25189708</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30553,7 +29475,7 @@
         <v>12274666.51889708</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30586,7 +29508,7 @@
         <v>12274666.51889708</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30619,7 +29541,7 @@
         <v>12274666.51889708</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30652,7 +29574,7 @@
         <v>12422860.79152966</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30685,7 +29607,7 @@
         <v>12422860.79152966</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30718,7 +29640,7 @@
         <v>12422866.14162966</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30751,7 +29673,7 @@
         <v>12414724.26922966</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31345,7 +30267,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31378,7 +30300,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31411,7 +30333,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31444,7 +30366,7 @@
         <v>12400375.09279906</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31477,7 +30399,7 @@
         <v>12401155.49049906</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31510,7 +30432,7 @@
         <v>12401155.49049906</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31543,7 +30465,7 @@
         <v>12399334.38999906</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31576,7 +30498,7 @@
         <v>12399435.4299195</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31609,7 +30531,7 @@
         <v>12399435.4299195</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31642,7 +30564,7 @@
         <v>12399038.5531195</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31675,7 +30597,7 @@
         <v>12580561.83513772</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31708,7 +30630,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31741,7 +30663,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31774,7 +30696,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31807,7 +30729,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31906,7 +30828,7 @@
         <v>12426597.95643771</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32434,7 +31356,7 @@
         <v>12639011.6468703</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32467,7 +31389,7 @@
         <v>12640971.9806703</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32500,7 +31422,7 @@
         <v>12640971.9806703</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32533,7 +31455,7 @@
         <v>12640971.9806703</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32566,7 +31488,7 @@
         <v>12637943.0436703</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32599,7 +31521,7 @@
         <v>12637943.0436703</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32632,7 +31554,7 @@
         <v>12637943.0436703</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32665,7 +31587,7 @@
         <v>12637943.0436703</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32698,7 +31620,7 @@
         <v>12663445.10559565</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32731,7 +31653,7 @@
         <v>12611182.17059565</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32764,7 +31686,7 @@
         <v>12611182.17059565</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -32797,7 +31719,7 @@
         <v>12635693.78699565</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32830,7 +31752,7 @@
         <v>12634273.37049565</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32863,7 +31785,7 @@
         <v>12634273.37049565</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -32896,7 +31818,7 @@
         <v>12754015.9517886</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32929,7 +31851,7 @@
         <v>12754015.9517886</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32962,7 +31884,7 @@
         <v>12635665.2045242</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33028,7 +31950,7 @@
         <v>12674767.66666543</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33391,7 +32313,7 @@
         <v>12510294.10522363</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33424,7 +32346,7 @@
         <v>12511667.85094898</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33457,7 +32379,7 @@
         <v>12510167.50884898</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33490,7 +32412,7 @@
         <v>12633695.15504898</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33523,7 +32445,7 @@
         <v>12649779.33634898</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33556,7 +32478,7 @@
         <v>12604416.89904898</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33589,7 +32511,7 @@
         <v>12483755.65554898</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33622,7 +32544,7 @@
         <v>12486537.42054898</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33655,7 +32577,7 @@
         <v>12486537.42054898</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33688,7 +32610,7 @@
         <v>12424980.8728349</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33721,7 +32643,7 @@
         <v>12424980.8728349</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33754,7 +32676,7 @@
         <v>12433778.6488349</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33787,7 +32709,7 @@
         <v>12433778.6488349</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33820,7 +32742,7 @@
         <v>12265457.0883349</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33853,7 +32775,7 @@
         <v>12322392.61302082</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33886,7 +32808,7 @@
         <v>12322392.61302082</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33919,7 +32841,7 @@
         <v>12322392.61302082</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33952,7 +32874,7 @@
         <v>12322392.61302082</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33985,7 +32907,7 @@
         <v>12328938.64012082</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34018,7 +32940,7 @@
         <v>12328897.79752082</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34216,7 +33138,7 @@
         <v>12234502.86712082</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34249,7 +33171,7 @@
         <v>12234502.86712082</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34282,7 +33204,7 @@
         <v>12234502.86712082</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34315,7 +33237,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34348,7 +33270,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34414,7 +33336,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34447,7 +33369,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34480,7 +33402,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34513,7 +33435,7 @@
         <v>12230418.10882082</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34546,7 +33468,7 @@
         <v>12214162.96602082</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34579,7 +33501,7 @@
         <v>12214162.96602082</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34612,7 +33534,7 @@
         <v>12276687.19772082</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34645,7 +33567,7 @@
         <v>12276687.19772082</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34678,7 +33600,7 @@
         <v>12276687.19772082</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34711,7 +33633,7 @@
         <v>12228459.15562082</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -34744,7 +33666,7 @@
         <v>12228459.15562082</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34777,7 +33699,7 @@
         <v>12228459.15562082</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34810,7 +33732,7 @@
         <v>12239315.53332082</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -34843,7 +33765,7 @@
         <v>12239315.53332082</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -34876,7 +33798,7 @@
         <v>12239315.53332082</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35206,7 +34128,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35239,7 +34161,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35272,7 +34194,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35305,7 +34227,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35338,7 +34260,7 @@
         <v>12202841.47318709</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35371,7 +34293,7 @@
         <v>12188372.58308709</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35404,7 +34326,7 @@
         <v>12387250.67278709</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35437,7 +34359,7 @@
         <v>12454797.68928709</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35470,7 +34392,7 @@
         <v>12451724.44298709</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35503,7 +34425,7 @@
         <v>12528984.59738709</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35536,7 +34458,7 @@
         <v>12528984.59738709</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35569,7 +34491,7 @@
         <v>12525004.16088709</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35602,7 +34524,7 @@
         <v>12535526.05581372</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35635,7 +34557,7 @@
         <v>12534875.14861372</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35767,7 +34689,7 @@
         <v>12528106.51671033</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35833,7 +34755,7 @@
         <v>12528106.51671033</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36130,7 +35052,7 @@
         <v>3944574.685509872</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36163,7 +35085,7 @@
         <v>3944574.685509872</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36196,7 +35118,7 @@
         <v>3944574.685509872</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36229,7 +35151,7 @@
         <v>4009935.581447262</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36262,7 +35184,7 @@
         <v>3951976.880847262</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36295,7 +35217,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36328,7 +35250,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36361,7 +35283,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36394,7 +35316,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36427,7 +35349,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36460,7 +35382,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36493,7 +35415,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36526,7 +35448,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36559,7 +35481,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36592,7 +35514,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36625,7 +35547,7 @@
         <v>3939430.636047262</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -36658,7 +35580,7 @@
         <v>4071694.380647262</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36691,7 +35613,7 @@
         <v>3942128.126091432</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36724,7 +35646,7 @@
         <v>3942128.126091432</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36790,7 +35712,7 @@
         <v>3942128.126091432</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -36823,7 +35745,7 @@
         <v>3953500.965918702</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -41806,11 +40728,17 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>345</v>
+      </c>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41839,11 +40767,17 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>345</v>
+      </c>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41872,11 +40806,17 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>345</v>
+      </c>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41905,11 +40845,17 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>345</v>
+      </c>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41938,11 +40884,17 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>345</v>
+      </c>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41971,11 +40923,17 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>345</v>
+      </c>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -42004,11 +40962,17 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>345</v>
+      </c>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -42037,11 +41001,17 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>345</v>
+      </c>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -42070,11 +41040,17 @@
         <v>1052184.592714101</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>345</v>
+      </c>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -42103,11 +41079,17 @@
         <v>366111.2025141011</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>344</v>
+      </c>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42144,7 +41126,7 @@
       <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1229" t="n">
@@ -42387,6 +41369,6 @@
       <c r="M1235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>